--- a/raw_data/20200818_saline/20200818_Sensor1_Test_70.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor1_Test_70.xlsx
@@ -1,673 +1,1089 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99495F78-37A1-4981-AEE9-8C21A7224435}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>62287.524180</v>
+        <v>62287.52418</v>
       </c>
       <c r="B2" s="1">
-        <v>17.302090</v>
+        <v>17.30209</v>
       </c>
       <c r="C2" s="1">
-        <v>901.055000</v>
+        <v>901.05499999999995</v>
       </c>
       <c r="D2" s="1">
-        <v>-186.321000</v>
+        <v>-186.321</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>62297.658968</v>
+        <v>62297.658968000003</v>
       </c>
       <c r="G2" s="1">
-        <v>17.304905</v>
+        <v>17.304905000000002</v>
       </c>
       <c r="H2" s="1">
-        <v>916.574000</v>
+        <v>916.57399999999996</v>
       </c>
       <c r="I2" s="1">
-        <v>-158.214000</v>
+        <v>-158.214</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>62307.423211</v>
+        <v>62307.423211000001</v>
       </c>
       <c r="L2" s="1">
-        <v>17.307618</v>
+        <v>17.307618000000002</v>
       </c>
       <c r="M2" s="1">
-        <v>938.271000</v>
+        <v>938.27099999999996</v>
       </c>
       <c r="N2" s="1">
-        <v>-115.403000</v>
+        <v>-115.40300000000001</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>62317.701313</v>
+        <v>62317.701312999998</v>
       </c>
       <c r="Q2" s="1">
-        <v>17.310473</v>
+        <v>17.310473000000002</v>
       </c>
       <c r="R2" s="1">
-        <v>945.721000</v>
+        <v>945.721</v>
       </c>
       <c r="S2" s="1">
-        <v>-101.560000</v>
+        <v>-101.56</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>62328.226384</v>
+        <v>62328.226384000001</v>
       </c>
       <c r="V2" s="1">
-        <v>17.313396</v>
+        <v>17.313396000000001</v>
       </c>
       <c r="W2" s="1">
-        <v>952.966000</v>
+        <v>952.96600000000001</v>
       </c>
       <c r="X2" s="1">
-        <v>-87.677000</v>
+        <v>-87.677000000000007</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>62338.621040</v>
+        <v>62338.621039999998</v>
       </c>
       <c r="AA2" s="1">
         <v>17.316284</v>
       </c>
       <c r="AB2" s="1">
-        <v>960.759000</v>
+        <v>960.75900000000001</v>
       </c>
       <c r="AC2" s="1">
-        <v>-76.753200</v>
+        <v>-76.753200000000007</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>62348.880788</v>
+        <v>62348.880788000002</v>
       </c>
       <c r="AF2" s="1">
-        <v>17.319134</v>
+        <v>17.319133999999998</v>
       </c>
       <c r="AG2" s="1">
-        <v>965.781000</v>
+        <v>965.78099999999995</v>
       </c>
       <c r="AH2" s="1">
-        <v>-74.795700</v>
+        <v>-74.795699999999997</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>62359.330536</v>
+        <v>62359.330536000001</v>
       </c>
       <c r="AK2" s="1">
-        <v>17.322036</v>
+        <v>17.322036000000001</v>
       </c>
       <c r="AL2" s="1">
-        <v>973.397000</v>
+        <v>973.39700000000005</v>
       </c>
       <c r="AM2" s="1">
-        <v>-79.514900</v>
+        <v>-79.514899999999997</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>62369.895785</v>
+        <v>62369.895785000001</v>
       </c>
       <c r="AP2" s="1">
-        <v>17.324971</v>
+        <v>17.324971000000001</v>
       </c>
       <c r="AQ2" s="1">
-        <v>981.589000</v>
+        <v>981.58900000000006</v>
       </c>
       <c r="AR2" s="1">
-        <v>-91.021800</v>
+        <v>-91.021799999999999</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>62380.917421</v>
+        <v>62380.917420999998</v>
       </c>
       <c r="AU2" s="1">
-        <v>17.328033</v>
+        <v>17.328033000000001</v>
       </c>
       <c r="AV2" s="1">
-        <v>991.509000</v>
+        <v>991.50900000000001</v>
       </c>
       <c r="AW2" s="1">
-        <v>-108.678000</v>
+        <v>-108.678</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>62392.011898</v>
+        <v>62392.011897999997</v>
       </c>
       <c r="AZ2" s="1">
-        <v>17.331114</v>
+        <v>17.331113999999999</v>
       </c>
       <c r="BA2" s="1">
-        <v>999.799000</v>
+        <v>999.79899999999998</v>
       </c>
       <c r="BB2" s="1">
-        <v>-124.298000</v>
+        <v>-124.298</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>62402.960093</v>
+        <v>62402.960093000002</v>
       </c>
       <c r="BE2" s="1">
         <v>17.334156</v>
       </c>
       <c r="BF2" s="1">
-        <v>1038.600000</v>
+        <v>1038.5999999999999</v>
       </c>
       <c r="BG2" s="1">
-        <v>-196.175000</v>
+        <v>-196.17500000000001</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>62413.946477</v>
+        <v>62413.946476999998</v>
       </c>
       <c r="BJ2" s="1">
-        <v>17.337207</v>
+        <v>17.337206999999999</v>
       </c>
       <c r="BK2" s="1">
-        <v>1105.990000</v>
+        <v>1105.99</v>
       </c>
       <c r="BL2" s="1">
-        <v>-312.365000</v>
+        <v>-312.36500000000001</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
         <v>62425.867327</v>
@@ -676,1692 +1092,1692 @@
         <v>17.340519</v>
       </c>
       <c r="BP2" s="1">
-        <v>1215.500000</v>
+        <v>1215.5</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-493.932000</v>
+        <v>-493.93200000000002</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>62436.612655</v>
+        <v>62436.612654999997</v>
       </c>
       <c r="BT2" s="1">
-        <v>17.343504</v>
+        <v>17.343503999999999</v>
       </c>
       <c r="BU2" s="1">
-        <v>1338.300000</v>
+        <v>1338.3</v>
       </c>
       <c r="BV2" s="1">
-        <v>-691.928000</v>
+        <v>-691.928</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>62447.294497</v>
+        <v>62447.294497000003</v>
       </c>
       <c r="BY2" s="1">
-        <v>17.346471</v>
+        <v>17.346471000000001</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1474.190000</v>
+        <v>1474.19</v>
       </c>
       <c r="CA2" s="1">
-        <v>-901.698000</v>
+        <v>-901.69799999999998</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>62458.577031</v>
+        <v>62458.577031000001</v>
       </c>
       <c r="CD2" s="1">
         <v>17.349605</v>
       </c>
       <c r="CE2" s="1">
-        <v>1827.690000</v>
+        <v>1827.69</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1398.870000</v>
+        <v>-1398.87</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>62287.905124</v>
+        <v>62287.905123999997</v>
       </c>
       <c r="B3" s="1">
-        <v>17.302196</v>
+        <v>17.302195999999999</v>
       </c>
       <c r="C3" s="1">
-        <v>901.007000</v>
+        <v>901.00699999999995</v>
       </c>
       <c r="D3" s="1">
-        <v>-186.149000</v>
+        <v>-186.149</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>62298.007657</v>
+        <v>62298.007657000002</v>
       </c>
       <c r="G3" s="1">
-        <v>17.305002</v>
+        <v>17.305002000000002</v>
       </c>
       <c r="H3" s="1">
-        <v>916.611000</v>
+        <v>916.61099999999999</v>
       </c>
       <c r="I3" s="1">
-        <v>-158.799000</v>
+        <v>-158.79900000000001</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>62307.803647</v>
+        <v>62307.803647000001</v>
       </c>
       <c r="L3" s="1">
-        <v>17.307723</v>
+        <v>17.307722999999999</v>
       </c>
       <c r="M3" s="1">
-        <v>938.236000</v>
+        <v>938.23599999999999</v>
       </c>
       <c r="N3" s="1">
-        <v>-115.445000</v>
+        <v>-115.44499999999999</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>62318.340620</v>
+        <v>62318.340620000003</v>
       </c>
       <c r="Q3" s="1">
-        <v>17.310650</v>
+        <v>17.310649999999999</v>
       </c>
       <c r="R3" s="1">
-        <v>945.688000</v>
+        <v>945.68799999999999</v>
       </c>
       <c r="S3" s="1">
-        <v>-101.599000</v>
+        <v>-101.599</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>62328.644015</v>
+        <v>62328.644014999998</v>
       </c>
       <c r="V3" s="1">
-        <v>17.313512</v>
+        <v>17.313511999999999</v>
       </c>
       <c r="W3" s="1">
-        <v>952.827000</v>
+        <v>952.827</v>
       </c>
       <c r="X3" s="1">
-        <v>-87.536500</v>
+        <v>-87.536500000000004</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>62338.733634</v>
+        <v>62338.733633999997</v>
       </c>
       <c r="AA3" s="1">
-        <v>17.316315</v>
+        <v>17.316314999999999</v>
       </c>
       <c r="AB3" s="1">
-        <v>960.813000</v>
+        <v>960.81299999999999</v>
       </c>
       <c r="AC3" s="1">
-        <v>-76.766000</v>
+        <v>-76.766000000000005</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>62349.274821</v>
+        <v>62349.274820999999</v>
       </c>
       <c r="AF3" s="1">
         <v>17.319243</v>
       </c>
       <c r="AG3" s="1">
-        <v>965.897000</v>
+        <v>965.89700000000005</v>
       </c>
       <c r="AH3" s="1">
-        <v>-74.726500</v>
+        <v>-74.726500000000001</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>62359.695557</v>
+        <v>62359.695556999999</v>
       </c>
       <c r="AK3" s="1">
-        <v>17.322138</v>
+        <v>17.322137999999999</v>
       </c>
       <c r="AL3" s="1">
-        <v>973.398000</v>
+        <v>973.39800000000002</v>
       </c>
       <c r="AM3" s="1">
-        <v>-79.513600</v>
+        <v>-79.513599999999997</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>62370.298535</v>
+        <v>62370.298535000002</v>
       </c>
       <c r="AP3" s="1">
-        <v>17.325083</v>
+        <v>17.325082999999999</v>
       </c>
       <c r="AQ3" s="1">
-        <v>981.595000</v>
+        <v>981.59500000000003</v>
       </c>
       <c r="AR3" s="1">
-        <v>-91.029400</v>
+        <v>-91.029399999999995</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>62381.288625</v>
+        <v>62381.288625000001</v>
       </c>
       <c r="AU3" s="1">
-        <v>17.328136</v>
+        <v>17.328136000000001</v>
       </c>
       <c r="AV3" s="1">
-        <v>991.509000</v>
+        <v>991.50900000000001</v>
       </c>
       <c r="AW3" s="1">
-        <v>-108.675000</v>
+        <v>-108.675</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>62392.435513</v>
+        <v>62392.435512999997</v>
       </c>
       <c r="AZ3" s="1">
         <v>17.331232</v>
       </c>
       <c r="BA3" s="1">
-        <v>999.785000</v>
+        <v>999.78499999999997</v>
       </c>
       <c r="BB3" s="1">
-        <v>-124.286000</v>
+        <v>-124.286</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>62403.361357</v>
+        <v>62403.361357000002</v>
       </c>
       <c r="BE3" s="1">
-        <v>17.334267</v>
+        <v>17.334267000000001</v>
       </c>
       <c r="BF3" s="1">
-        <v>1038.610000</v>
+        <v>1038.6099999999999</v>
       </c>
       <c r="BG3" s="1">
-        <v>-196.188000</v>
+        <v>-196.18799999999999</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>62414.361629</v>
+        <v>62414.361628999999</v>
       </c>
       <c r="BJ3" s="1">
-        <v>17.337323</v>
+        <v>17.337323000000001</v>
       </c>
       <c r="BK3" s="1">
-        <v>1105.980000</v>
+        <v>1105.98</v>
       </c>
       <c r="BL3" s="1">
-        <v>-312.374000</v>
+        <v>-312.37400000000002</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>62426.273053</v>
+        <v>62426.273052999997</v>
       </c>
       <c r="BO3" s="1">
-        <v>17.340631</v>
+        <v>17.340630999999998</v>
       </c>
       <c r="BP3" s="1">
-        <v>1215.510000</v>
+        <v>1215.51</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-493.951000</v>
+        <v>-493.95100000000002</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>62437.362606</v>
+        <v>62437.362606000002</v>
       </c>
       <c r="BT3" s="1">
         <v>17.343712</v>
       </c>
       <c r="BU3" s="1">
-        <v>1338.360000</v>
+        <v>1338.36</v>
       </c>
       <c r="BV3" s="1">
-        <v>-691.865000</v>
+        <v>-691.86500000000001</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>62448.093552</v>
+        <v>62448.093551999998</v>
       </c>
       <c r="BY3" s="1">
-        <v>17.346693</v>
+        <v>17.346692999999998</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1474.300000</v>
+        <v>1474.3</v>
       </c>
       <c r="CA3" s="1">
-        <v>-901.754000</v>
+        <v>-901.75400000000002</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>62458.857266</v>
+        <v>62458.857265999999</v>
       </c>
       <c r="CD3" s="1">
-        <v>17.349683</v>
+        <v>17.349682999999999</v>
       </c>
       <c r="CE3" s="1">
-        <v>1828.080000</v>
+        <v>1828.08</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1397.600000</v>
+        <v>-1397.6</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>62288.249832</v>
+        <v>62288.249832000001</v>
       </c>
       <c r="B4" s="1">
-        <v>17.302292</v>
+        <v>17.302292000000001</v>
       </c>
       <c r="C4" s="1">
-        <v>900.934000</v>
+        <v>900.93399999999997</v>
       </c>
       <c r="D4" s="1">
-        <v>-186.247000</v>
+        <v>-186.24700000000001</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>62298.350855</v>
+        <v>62298.350854999997</v>
       </c>
       <c r="G4" s="1">
         <v>17.305097</v>
       </c>
       <c r="H4" s="1">
-        <v>916.859000</v>
+        <v>916.85900000000004</v>
       </c>
       <c r="I4" s="1">
-        <v>-158.567000</v>
+        <v>-158.56700000000001</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>62308.227689</v>
+        <v>62308.227688999999</v>
       </c>
       <c r="L4" s="1">
         <v>17.307841</v>
       </c>
       <c r="M4" s="1">
-        <v>938.391000</v>
+        <v>938.39099999999996</v>
       </c>
       <c r="N4" s="1">
-        <v>-115.408000</v>
+        <v>-115.408</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>62318.718603</v>
+        <v>62318.718603000001</v>
       </c>
       <c r="Q4" s="1">
         <v>17.310755</v>
       </c>
       <c r="R4" s="1">
-        <v>945.709000</v>
+        <v>945.70899999999995</v>
       </c>
       <c r="S4" s="1">
-        <v>-101.513000</v>
+        <v>-101.51300000000001</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>62328.953551</v>
+        <v>62328.953550999999</v>
       </c>
       <c r="V4" s="1">
-        <v>17.313598</v>
+        <v>17.313597999999999</v>
       </c>
       <c r="W4" s="1">
-        <v>952.979000</v>
+        <v>952.97900000000004</v>
       </c>
       <c r="X4" s="1">
-        <v>-87.618500</v>
+        <v>-87.618499999999997</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>62339.068928</v>
+        <v>62339.068928000001</v>
       </c>
       <c r="AA4" s="1">
-        <v>17.316408</v>
+        <v>17.316407999999999</v>
       </c>
       <c r="AB4" s="1">
-        <v>960.825000</v>
+        <v>960.82500000000005</v>
       </c>
       <c r="AC4" s="1">
-        <v>-76.728800</v>
+        <v>-76.728800000000007</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>62349.621314</v>
+        <v>62349.621314000004</v>
       </c>
       <c r="AF4" s="1">
-        <v>17.319339</v>
+        <v>17.319338999999999</v>
       </c>
       <c r="AG4" s="1">
-        <v>965.842000</v>
+        <v>965.84199999999998</v>
       </c>
       <c r="AH4" s="1">
-        <v>-74.645700</v>
+        <v>-74.645700000000005</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>62360.046262</v>
+        <v>62360.046262000003</v>
       </c>
       <c r="AK4" s="1">
-        <v>17.322235</v>
+        <v>17.322234999999999</v>
       </c>
       <c r="AL4" s="1">
-        <v>973.422000</v>
+        <v>973.42200000000003</v>
       </c>
       <c r="AM4" s="1">
-        <v>-79.536000</v>
+        <v>-79.536000000000001</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
         <v>62371.003847</v>
       </c>
       <c r="AP4" s="1">
-        <v>17.325279</v>
+        <v>17.325278999999998</v>
       </c>
       <c r="AQ4" s="1">
-        <v>981.594000</v>
+        <v>981.59400000000005</v>
       </c>
       <c r="AR4" s="1">
-        <v>-91.003000</v>
+        <v>-91.003</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>62382.018008</v>
+        <v>62382.018007999999</v>
       </c>
       <c r="AU4" s="1">
-        <v>17.328338</v>
+        <v>17.328337999999999</v>
       </c>
       <c r="AV4" s="1">
-        <v>991.502000</v>
+        <v>991.50199999999995</v>
       </c>
       <c r="AW4" s="1">
-        <v>-108.678000</v>
+        <v>-108.678</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>62392.783710</v>
+        <v>62392.783710000003</v>
       </c>
       <c r="AZ4" s="1">
         <v>17.331329</v>
       </c>
       <c r="BA4" s="1">
-        <v>999.796000</v>
+        <v>999.79600000000005</v>
       </c>
       <c r="BB4" s="1">
-        <v>-124.278000</v>
+        <v>-124.27800000000001</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>62403.719963</v>
+        <v>62403.719963000003</v>
       </c>
       <c r="BE4" s="1">
         <v>17.334367</v>
       </c>
       <c r="BF4" s="1">
-        <v>1038.610000</v>
+        <v>1038.6099999999999</v>
       </c>
       <c r="BG4" s="1">
-        <v>-196.189000</v>
+        <v>-196.18899999999999</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>62414.736604</v>
+        <v>62414.736603999998</v>
       </c>
       <c r="BJ4" s="1">
-        <v>17.337427</v>
+        <v>17.337427000000002</v>
       </c>
       <c r="BK4" s="1">
-        <v>1105.980000</v>
+        <v>1105.98</v>
       </c>
       <c r="BL4" s="1">
-        <v>-312.360000</v>
+        <v>-312.36</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>62427.017549</v>
+        <v>62427.017548999997</v>
       </c>
       <c r="BO4" s="1">
-        <v>17.340838</v>
+        <v>17.340838000000002</v>
       </c>
       <c r="BP4" s="1">
-        <v>1215.530000</v>
+        <v>1215.53</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-493.971000</v>
+        <v>-493.971</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>62437.481150</v>
+        <v>62437.48115</v>
       </c>
       <c r="BT4" s="1">
-        <v>17.343745</v>
+        <v>17.343744999999998</v>
       </c>
       <c r="BU4" s="1">
-        <v>1338.360000</v>
+        <v>1338.36</v>
       </c>
       <c r="BV4" s="1">
-        <v>-691.779000</v>
+        <v>-691.779</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>62448.218080</v>
+        <v>62448.218079999999</v>
       </c>
       <c r="BY4" s="1">
-        <v>17.346727</v>
+        <v>17.346727000000001</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1474.150000</v>
+        <v>1474.15</v>
       </c>
       <c r="CA4" s="1">
-        <v>-901.714000</v>
+        <v>-901.71400000000006</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>62459.376081</v>
+        <v>62459.376081000002</v>
       </c>
       <c r="CD4" s="1">
-        <v>17.349827</v>
+        <v>17.349827000000001</v>
       </c>
       <c r="CE4" s="1">
-        <v>1827.660000</v>
+        <v>1827.66</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1397.450000</v>
+        <v>-1397.45</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>62288.687795</v>
+        <v>62288.687794999998</v>
       </c>
       <c r="B5" s="1">
-        <v>17.302413</v>
+        <v>17.302413000000001</v>
       </c>
       <c r="C5" s="1">
-        <v>900.958000</v>
+        <v>900.95799999999997</v>
       </c>
       <c r="D5" s="1">
-        <v>-186.188000</v>
+        <v>-186.18799999999999</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>62298.773973</v>
+        <v>62298.773973000003</v>
       </c>
       <c r="G5" s="1">
         <v>17.305215</v>
       </c>
       <c r="H5" s="1">
-        <v>916.409000</v>
+        <v>916.40899999999999</v>
       </c>
       <c r="I5" s="1">
-        <v>-158.960000</v>
+        <v>-158.96</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>62308.528762</v>
+        <v>62308.528762000002</v>
       </c>
       <c r="L5" s="1">
-        <v>17.307925</v>
+        <v>17.307925000000001</v>
       </c>
       <c r="M5" s="1">
-        <v>938.150000</v>
+        <v>938.15</v>
       </c>
       <c r="N5" s="1">
-        <v>-115.323000</v>
+        <v>-115.32299999999999</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
         <v>62319.067294</v>
       </c>
       <c r="Q5" s="1">
-        <v>17.310852</v>
+        <v>17.310852000000001</v>
       </c>
       <c r="R5" s="1">
-        <v>945.714000</v>
+        <v>945.71400000000006</v>
       </c>
       <c r="S5" s="1">
-        <v>-101.537000</v>
+        <v>-101.53700000000001</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>62329.296749</v>
+        <v>62329.296749000001</v>
       </c>
       <c r="V5" s="1">
-        <v>17.313694</v>
+        <v>17.313694000000002</v>
       </c>
       <c r="W5" s="1">
-        <v>952.977000</v>
+        <v>952.97699999999998</v>
       </c>
       <c r="X5" s="1">
-        <v>-87.722100</v>
+        <v>-87.722099999999998</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>62339.420624</v>
+        <v>62339.420623999998</v>
       </c>
       <c r="AA5" s="1">
         <v>17.316506</v>
       </c>
       <c r="AB5" s="1">
-        <v>960.759000</v>
+        <v>960.75900000000001</v>
       </c>
       <c r="AC5" s="1">
-        <v>-76.725700</v>
+        <v>-76.725700000000003</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>62349.967026</v>
+        <v>62349.967025999998</v>
       </c>
       <c r="AF5" s="1">
-        <v>17.319435</v>
+        <v>17.319434999999999</v>
       </c>
       <c r="AG5" s="1">
-        <v>965.898000</v>
+        <v>965.89800000000002</v>
       </c>
       <c r="AH5" s="1">
-        <v>-74.871500</v>
+        <v>-74.871499999999997</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>62360.743636</v>
+        <v>62360.743635999999</v>
       </c>
       <c r="AK5" s="1">
         <v>17.322429</v>
       </c>
       <c r="AL5" s="1">
-        <v>973.439000</v>
+        <v>973.43899999999996</v>
       </c>
       <c r="AM5" s="1">
-        <v>-79.550600</v>
+        <v>-79.550600000000003</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>62371.405143</v>
+        <v>62371.405143000004</v>
       </c>
       <c r="AP5" s="1">
-        <v>17.325390</v>
+        <v>17.325389999999999</v>
       </c>
       <c r="AQ5" s="1">
-        <v>981.578000</v>
+        <v>981.57799999999997</v>
       </c>
       <c r="AR5" s="1">
-        <v>-91.041900</v>
+        <v>-91.041899999999998</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>62382.381079</v>
+        <v>62382.381078999999</v>
       </c>
       <c r="AU5" s="1">
-        <v>17.328439</v>
+        <v>17.328438999999999</v>
       </c>
       <c r="AV5" s="1">
-        <v>991.502000</v>
+        <v>991.50199999999995</v>
       </c>
       <c r="AW5" s="1">
-        <v>-108.669000</v>
+        <v>-108.669</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>62393.144793</v>
+        <v>62393.144792999999</v>
       </c>
       <c r="AZ5" s="1">
         <v>17.331429</v>
       </c>
       <c r="BA5" s="1">
-        <v>999.804000</v>
+        <v>999.80399999999997</v>
       </c>
       <c r="BB5" s="1">
-        <v>-124.301000</v>
+        <v>-124.301</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>62404.394522</v>
+        <v>62404.394522000002</v>
       </c>
       <c r="BE5" s="1">
-        <v>17.334554</v>
+        <v>17.334554000000001</v>
       </c>
       <c r="BF5" s="1">
-        <v>1038.600000</v>
+        <v>1038.5999999999999</v>
       </c>
       <c r="BG5" s="1">
-        <v>-196.174000</v>
+        <v>-196.17400000000001</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>62415.423098</v>
+        <v>62415.423097999999</v>
       </c>
       <c r="BJ5" s="1">
-        <v>17.337618</v>
+        <v>17.337617999999999</v>
       </c>
       <c r="BK5" s="1">
-        <v>1105.990000</v>
+        <v>1105.99</v>
       </c>
       <c r="BL5" s="1">
-        <v>-312.363000</v>
+        <v>-312.363</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>62427.126667</v>
+        <v>62427.126666999997</v>
       </c>
       <c r="BO5" s="1">
-        <v>17.340869</v>
+        <v>17.340869000000001</v>
       </c>
       <c r="BP5" s="1">
-        <v>1215.540000</v>
+        <v>1215.54</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-493.986000</v>
+        <v>-493.98599999999999</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>62437.898285</v>
+        <v>62437.898285000003</v>
       </c>
       <c r="BT5" s="1">
         <v>17.343861</v>
       </c>
       <c r="BU5" s="1">
-        <v>1338.300000</v>
+        <v>1338.3</v>
       </c>
       <c r="BV5" s="1">
-        <v>-691.702000</v>
+        <v>-691.702</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>62448.655521</v>
+        <v>62448.655521000001</v>
       </c>
       <c r="BY5" s="1">
-        <v>17.346849</v>
+        <v>17.346848999999999</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1474.190000</v>
+        <v>1474.19</v>
       </c>
       <c r="CA5" s="1">
-        <v>-901.655000</v>
+        <v>-901.65499999999997</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>62459.924129</v>
+        <v>62459.924128999999</v>
       </c>
       <c r="CD5" s="1">
-        <v>17.349979</v>
+        <v>17.349979000000001</v>
       </c>
       <c r="CE5" s="1">
-        <v>1828.370000</v>
+        <v>1828.37</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1397.860000</v>
+        <v>-1397.86</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>62288.930355</v>
+        <v>62288.930354999997</v>
       </c>
       <c r="B6" s="1">
         <v>17.302481</v>
       </c>
       <c r="C6" s="1">
-        <v>900.934000</v>
+        <v>900.93399999999997</v>
       </c>
       <c r="D6" s="1">
-        <v>-186.300000</v>
+        <v>-186.3</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>62299.046245</v>
+        <v>62299.046244999998</v>
       </c>
       <c r="G6" s="1">
         <v>17.305291</v>
       </c>
       <c r="H6" s="1">
-        <v>916.620000</v>
+        <v>916.62</v>
       </c>
       <c r="I6" s="1">
-        <v>-158.510000</v>
+        <v>-158.51</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>62308.874472</v>
+        <v>62308.874472000003</v>
       </c>
       <c r="L6" s="1">
         <v>17.308021</v>
       </c>
       <c r="M6" s="1">
-        <v>938.250000</v>
+        <v>938.25</v>
       </c>
       <c r="N6" s="1">
-        <v>-115.190000</v>
+        <v>-115.19</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>62319.413962</v>
+        <v>62319.413961999999</v>
       </c>
       <c r="Q6" s="1">
         <v>17.310948</v>
       </c>
       <c r="R6" s="1">
-        <v>945.693000</v>
+        <v>945.69299999999998</v>
       </c>
       <c r="S6" s="1">
-        <v>-101.495000</v>
+        <v>-101.495</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>62329.639982</v>
+        <v>62329.639982000001</v>
       </c>
       <c r="V6" s="1">
         <v>17.313789</v>
       </c>
       <c r="W6" s="1">
-        <v>953.023000</v>
+        <v>953.02300000000002</v>
       </c>
       <c r="X6" s="1">
-        <v>-87.676300</v>
+        <v>-87.676299999999998</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>62340.114025</v>
+        <v>62340.114025000003</v>
       </c>
       <c r="AA6" s="1">
-        <v>17.316698</v>
+        <v>17.316697999999999</v>
       </c>
       <c r="AB6" s="1">
-        <v>960.812000</v>
+        <v>960.81200000000001</v>
       </c>
       <c r="AC6" s="1">
-        <v>-76.633500</v>
+        <v>-76.633499999999998</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>62350.661953</v>
+        <v>62350.661953000003</v>
       </c>
       <c r="AF6" s="1">
-        <v>17.319628</v>
+        <v>17.319628000000002</v>
       </c>
       <c r="AG6" s="1">
-        <v>965.920000</v>
+        <v>965.92</v>
       </c>
       <c r="AH6" s="1">
-        <v>-74.679900</v>
+        <v>-74.679900000000004</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>62361.091331</v>
+        <v>62361.091331000003</v>
       </c>
       <c r="AK6" s="1">
-        <v>17.322525</v>
+        <v>17.322524999999999</v>
       </c>
       <c r="AL6" s="1">
-        <v>973.400000</v>
+        <v>973.4</v>
       </c>
       <c r="AM6" s="1">
-        <v>-79.560100</v>
+        <v>-79.560100000000006</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>62371.764711</v>
+        <v>62371.764711000003</v>
       </c>
       <c r="AP6" s="1">
-        <v>17.325490</v>
+        <v>17.325489999999999</v>
       </c>
       <c r="AQ6" s="1">
-        <v>981.618000</v>
+        <v>981.61800000000005</v>
       </c>
       <c r="AR6" s="1">
-        <v>-91.036100</v>
+        <v>-91.036100000000005</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>62382.747127</v>
+        <v>62382.747127000002</v>
       </c>
       <c r="AU6" s="1">
-        <v>17.328541</v>
+        <v>17.328541000000001</v>
       </c>
       <c r="AV6" s="1">
-        <v>991.509000</v>
+        <v>991.50900000000001</v>
       </c>
       <c r="AW6" s="1">
-        <v>-108.687000</v>
+        <v>-108.687</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>62393.816383</v>
+        <v>62393.816382999998</v>
       </c>
       <c r="AZ6" s="1">
         <v>17.331616</v>
       </c>
       <c r="BA6" s="1">
-        <v>999.782000</v>
+        <v>999.78200000000004</v>
       </c>
       <c r="BB6" s="1">
-        <v>-124.279000</v>
+        <v>-124.279</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>62404.803721</v>
+        <v>62404.803720999997</v>
       </c>
       <c r="BE6" s="1">
-        <v>17.334668</v>
+        <v>17.334668000000001</v>
       </c>
       <c r="BF6" s="1">
-        <v>1038.620000</v>
+        <v>1038.6199999999999</v>
       </c>
       <c r="BG6" s="1">
-        <v>-196.189000</v>
+        <v>-196.18899999999999</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
         <v>62415.862557</v>
       </c>
       <c r="BJ6" s="1">
-        <v>17.337740</v>
+        <v>17.33774</v>
       </c>
       <c r="BK6" s="1">
-        <v>1105.990000</v>
+        <v>1105.99</v>
       </c>
       <c r="BL6" s="1">
-        <v>-312.353000</v>
+        <v>-312.35300000000001</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>62427.518013</v>
+        <v>62427.518013000001</v>
       </c>
       <c r="BO6" s="1">
-        <v>17.340977</v>
+        <v>17.340976999999999</v>
       </c>
       <c r="BP6" s="1">
-        <v>1215.490000</v>
+        <v>1215.49</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-494.021000</v>
+        <v>-494.02100000000002</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>62438.311490</v>
+        <v>62438.31149</v>
       </c>
       <c r="BT6" s="1">
         <v>17.343975</v>
       </c>
       <c r="BU6" s="1">
-        <v>1338.240000</v>
+        <v>1338.24</v>
       </c>
       <c r="BV6" s="1">
-        <v>-691.607000</v>
+        <v>-691.60699999999997</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
         <v>62449.075631</v>
       </c>
       <c r="BY6" s="1">
-        <v>17.346965</v>
+        <v>17.346965000000001</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1474.070000</v>
+        <v>1474.07</v>
       </c>
       <c r="CA6" s="1">
-        <v>-901.676000</v>
+        <v>-901.67600000000004</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>62460.453389</v>
+        <v>62460.453389000002</v>
       </c>
       <c r="CD6" s="1">
-        <v>17.350126</v>
+        <v>17.350125999999999</v>
       </c>
       <c r="CE6" s="1">
-        <v>1827.010000</v>
+        <v>1827.01</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1397.600000</v>
+        <v>-1397.6</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>62289.268147</v>
+        <v>62289.268147000003</v>
       </c>
       <c r="B7" s="1">
         <v>17.302574</v>
       </c>
       <c r="C7" s="1">
-        <v>900.836000</v>
+        <v>900.83600000000001</v>
       </c>
       <c r="D7" s="1">
-        <v>-186.298000</v>
+        <v>-186.298</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>62299.390965</v>
+        <v>62299.390964999999</v>
       </c>
       <c r="G7" s="1">
-        <v>17.305386</v>
+        <v>17.305385999999999</v>
       </c>
       <c r="H7" s="1">
-        <v>916.458000</v>
+        <v>916.45799999999997</v>
       </c>
       <c r="I7" s="1">
-        <v>-158.765000</v>
+        <v>-158.76499999999999</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>62309.219689</v>
+        <v>62309.219688999998</v>
       </c>
       <c r="L7" s="1">
-        <v>17.308117</v>
+        <v>17.308116999999999</v>
       </c>
       <c r="M7" s="1">
-        <v>938.247000</v>
+        <v>938.24699999999996</v>
       </c>
       <c r="N7" s="1">
-        <v>-115.354000</v>
+        <v>-115.354</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>62320.114350</v>
+        <v>62320.114350000003</v>
       </c>
       <c r="Q7" s="1">
-        <v>17.311143</v>
+        <v>17.311143000000001</v>
       </c>
       <c r="R7" s="1">
-        <v>945.726000</v>
+        <v>945.726</v>
       </c>
       <c r="S7" s="1">
-        <v>-101.605000</v>
+        <v>-101.605</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>62330.327468</v>
+        <v>62330.327468000003</v>
       </c>
       <c r="V7" s="1">
-        <v>17.313980</v>
+        <v>17.313980000000001</v>
       </c>
       <c r="W7" s="1">
-        <v>952.908000</v>
+        <v>952.90800000000002</v>
       </c>
       <c r="X7" s="1">
-        <v>-87.534500</v>
+        <v>-87.534499999999994</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>62340.462223</v>
+        <v>62340.462223000002</v>
       </c>
       <c r="AA7" s="1">
-        <v>17.316795</v>
+        <v>17.316794999999999</v>
       </c>
       <c r="AB7" s="1">
-        <v>960.779000</v>
+        <v>960.779</v>
       </c>
       <c r="AC7" s="1">
-        <v>-76.771400</v>
+        <v>-76.7714</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>62350.995728</v>
+        <v>62350.995728000002</v>
       </c>
       <c r="AF7" s="1">
-        <v>17.319721</v>
+        <v>17.319721000000001</v>
       </c>
       <c r="AG7" s="1">
-        <v>965.848000</v>
+        <v>965.84799999999996</v>
       </c>
       <c r="AH7" s="1">
-        <v>-74.760400</v>
+        <v>-74.760400000000004</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>62361.440482</v>
+        <v>62361.440481999998</v>
       </c>
       <c r="AK7" s="1">
-        <v>17.322622</v>
+        <v>17.322621999999999</v>
       </c>
       <c r="AL7" s="1">
-        <v>973.397000</v>
+        <v>973.39700000000005</v>
       </c>
       <c r="AM7" s="1">
-        <v>-79.520800</v>
+        <v>-79.520799999999994</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>62372.436822</v>
+        <v>62372.436822000003</v>
       </c>
       <c r="AP7" s="1">
-        <v>17.325677</v>
+        <v>17.325676999999999</v>
       </c>
       <c r="AQ7" s="1">
-        <v>981.585000</v>
+        <v>981.58500000000004</v>
       </c>
       <c r="AR7" s="1">
-        <v>-91.032000</v>
+        <v>-91.031999999999996</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>62383.487157</v>
+        <v>62383.487157000003</v>
       </c>
       <c r="AU7" s="1">
-        <v>17.328746</v>
+        <v>17.328745999999999</v>
       </c>
       <c r="AV7" s="1">
-        <v>991.529000</v>
+        <v>991.529</v>
       </c>
       <c r="AW7" s="1">
-        <v>-108.654000</v>
+        <v>-108.654</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>62394.217637</v>
+        <v>62394.217637000002</v>
       </c>
       <c r="AZ7" s="1">
-        <v>17.331727</v>
+        <v>17.331727000000001</v>
       </c>
       <c r="BA7" s="1">
-        <v>999.795000</v>
+        <v>999.79499999999996</v>
       </c>
       <c r="BB7" s="1">
-        <v>-124.285000</v>
+        <v>-124.285</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>62405.186137</v>
+        <v>62405.186136999997</v>
       </c>
       <c r="BE7" s="1">
-        <v>17.334774</v>
+        <v>17.334773999999999</v>
       </c>
       <c r="BF7" s="1">
-        <v>1038.610000</v>
+        <v>1038.6099999999999</v>
       </c>
       <c r="BG7" s="1">
-        <v>-196.185000</v>
+        <v>-196.185</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>62416.237497</v>
+        <v>62416.237497000002</v>
       </c>
       <c r="BJ7" s="1">
         <v>17.337844</v>
       </c>
       <c r="BK7" s="1">
-        <v>1106.000000</v>
+        <v>1106</v>
       </c>
       <c r="BL7" s="1">
-        <v>-312.354000</v>
+        <v>-312.35399999999998</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>62427.942586</v>
+        <v>62427.942585999997</v>
       </c>
       <c r="BO7" s="1">
-        <v>17.341095</v>
+        <v>17.341094999999999</v>
       </c>
       <c r="BP7" s="1">
-        <v>1215.510000</v>
+        <v>1215.51</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-493.975000</v>
+        <v>-493.97500000000002</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>62438.747964</v>
+        <v>62438.747964000002</v>
       </c>
       <c r="BT7" s="1">
-        <v>17.344097</v>
+        <v>17.344097000000001</v>
       </c>
       <c r="BU7" s="1">
-        <v>1338.210000</v>
+        <v>1338.21</v>
       </c>
       <c r="BV7" s="1">
-        <v>-691.578000</v>
+        <v>-691.57799999999997</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>62449.500714</v>
+        <v>62449.500714000002</v>
       </c>
       <c r="BY7" s="1">
-        <v>17.347084</v>
+        <v>17.347083999999999</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1474.210000</v>
+        <v>1474.21</v>
       </c>
       <c r="CA7" s="1">
-        <v>-901.829000</v>
+        <v>-901.82899999999995</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>62460.970688</v>
+        <v>62460.970688000001</v>
       </c>
       <c r="CD7" s="1">
-        <v>17.350270</v>
+        <v>17.350269999999998</v>
       </c>
       <c r="CE7" s="1">
-        <v>1827.600000</v>
+        <v>1827.6</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1397.560000</v>
+        <v>-1397.56</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>62289.614323</v>
+        <v>62289.614323000002</v>
       </c>
       <c r="B8" s="1">
         <v>17.302671</v>
       </c>
       <c r="C8" s="1">
-        <v>900.996000</v>
+        <v>900.99599999999998</v>
       </c>
       <c r="D8" s="1">
-        <v>-186.380000</v>
+        <v>-186.38</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>62299.735188</v>
+        <v>62299.735187999999</v>
       </c>
       <c r="G8" s="1">
-        <v>17.305482</v>
+        <v>17.305482000000001</v>
       </c>
       <c r="H8" s="1">
-        <v>916.895000</v>
+        <v>916.89499999999998</v>
       </c>
       <c r="I8" s="1">
-        <v>-158.278000</v>
+        <v>-158.27799999999999</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>62309.913590</v>
+        <v>62309.913589999996</v>
       </c>
       <c r="L8" s="1">
-        <v>17.308309</v>
+        <v>17.308309000000001</v>
       </c>
       <c r="M8" s="1">
-        <v>938.411000</v>
+        <v>938.41099999999994</v>
       </c>
       <c r="N8" s="1">
-        <v>-115.407000</v>
+        <v>-115.407</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>62320.460731</v>
+        <v>62320.460730999999</v>
       </c>
       <c r="Q8" s="1">
         <v>17.311239</v>
       </c>
       <c r="R8" s="1">
-        <v>945.721000</v>
+        <v>945.721</v>
       </c>
       <c r="S8" s="1">
-        <v>-101.575000</v>
+        <v>-101.575</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>62330.669708</v>
+        <v>62330.669708000001</v>
       </c>
       <c r="V8" s="1">
-        <v>17.314075</v>
+        <v>17.314074999999999</v>
       </c>
       <c r="W8" s="1">
-        <v>952.923000</v>
+        <v>952.923</v>
       </c>
       <c r="X8" s="1">
-        <v>-87.651700</v>
+        <v>-87.651700000000005</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
         <v>62340.812866</v>
       </c>
       <c r="AA8" s="1">
-        <v>17.316892</v>
+        <v>17.316891999999999</v>
       </c>
       <c r="AB8" s="1">
-        <v>960.814000</v>
+        <v>960.81399999999996</v>
       </c>
       <c r="AC8" s="1">
-        <v>-76.742200</v>
+        <v>-76.742199999999997</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>62351.653919</v>
+        <v>62351.653918999997</v>
       </c>
       <c r="AF8" s="1">
-        <v>17.319904</v>
+        <v>17.319904000000001</v>
       </c>
       <c r="AG8" s="1">
-        <v>965.811000</v>
+        <v>965.81100000000004</v>
       </c>
       <c r="AH8" s="1">
-        <v>-74.870400</v>
+        <v>-74.870400000000004</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>62362.099698</v>
+        <v>62362.099697999998</v>
       </c>
       <c r="AK8" s="1">
-        <v>17.322805</v>
+        <v>17.322804999999999</v>
       </c>
       <c r="AL8" s="1">
-        <v>973.419000</v>
+        <v>973.41899999999998</v>
       </c>
       <c r="AM8" s="1">
-        <v>-79.531900</v>
+        <v>-79.531899999999993</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
         <v>62372.844997</v>
       </c>
       <c r="AP8" s="1">
-        <v>17.325790</v>
+        <v>17.325790000000001</v>
       </c>
       <c r="AQ8" s="1">
-        <v>981.598000</v>
+        <v>981.59799999999996</v>
       </c>
       <c r="AR8" s="1">
-        <v>-91.032300</v>
+        <v>-91.032300000000006</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>62383.840309</v>
+        <v>62383.840308999999</v>
       </c>
       <c r="AU8" s="1">
-        <v>17.328845</v>
+        <v>17.328845000000001</v>
       </c>
       <c r="AV8" s="1">
-        <v>991.518000</v>
+        <v>991.51800000000003</v>
       </c>
       <c r="AW8" s="1">
-        <v>-108.684000</v>
+        <v>-108.684</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>62394.601511</v>
+        <v>62394.601511000001</v>
       </c>
       <c r="AZ8" s="1">
-        <v>17.331834</v>
+        <v>17.331834000000001</v>
       </c>
       <c r="BA8" s="1">
-        <v>999.772000</v>
+        <v>999.77200000000005</v>
       </c>
       <c r="BB8" s="1">
-        <v>-124.293000</v>
+        <v>-124.29300000000001</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>62405.547720</v>
+        <v>62405.547720000002</v>
       </c>
       <c r="BE8" s="1">
-        <v>17.334874</v>
+        <v>17.334873999999999</v>
       </c>
       <c r="BF8" s="1">
-        <v>1038.590000</v>
+        <v>1038.5899999999999</v>
       </c>
       <c r="BG8" s="1">
-        <v>-196.195000</v>
+        <v>-196.19499999999999</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
         <v>62416.636777</v>
       </c>
       <c r="BJ8" s="1">
-        <v>17.337955</v>
+        <v>17.337955000000001</v>
       </c>
       <c r="BK8" s="1">
-        <v>1105.990000</v>
+        <v>1105.99</v>
       </c>
       <c r="BL8" s="1">
-        <v>-312.364000</v>
+        <v>-312.36399999999998</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>62428.375594</v>
+        <v>62428.375593999997</v>
       </c>
       <c r="BO8" s="1">
-        <v>17.341215</v>
+        <v>17.341214999999998</v>
       </c>
       <c r="BP8" s="1">
-        <v>1215.460000</v>
+        <v>1215.46</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-493.963000</v>
+        <v>-493.96300000000002</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>62439.144733</v>
+        <v>62439.144733000001</v>
       </c>
       <c r="BT8" s="1">
-        <v>17.344207</v>
+        <v>17.344207000000001</v>
       </c>
       <c r="BU8" s="1">
-        <v>1338.040000</v>
+        <v>1338.04</v>
       </c>
       <c r="BV8" s="1">
-        <v>-691.516000</v>
+        <v>-691.51599999999996</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>62449.925278</v>
+        <v>62449.925278000002</v>
       </c>
       <c r="BY8" s="1">
-        <v>17.347201</v>
+        <v>17.347200999999998</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1474.150000</v>
+        <v>1474.15</v>
       </c>
       <c r="CA8" s="1">
-        <v>-901.609000</v>
+        <v>-901.60900000000004</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>62461.522734</v>
+        <v>62461.522733999998</v>
       </c>
       <c r="CD8" s="1">
-        <v>17.350423</v>
+        <v>17.350422999999999</v>
       </c>
       <c r="CE8" s="1">
-        <v>1828.300000</v>
+        <v>1828.3</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1397.560000</v>
+        <v>-1397.56</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>62290.304752</v>
+        <v>62290.304751999996</v>
       </c>
       <c r="B9" s="1">
-        <v>17.302862</v>
+        <v>17.302862000000001</v>
       </c>
       <c r="C9" s="1">
-        <v>900.898000</v>
+        <v>900.89800000000002</v>
       </c>
       <c r="D9" s="1">
-        <v>-186.312000</v>
+        <v>-186.31200000000001</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>62300.425124</v>
+        <v>62300.425124000001</v>
       </c>
       <c r="G9" s="1">
         <v>17.305674</v>
       </c>
       <c r="H9" s="1">
-        <v>916.798000</v>
+        <v>916.798</v>
       </c>
       <c r="I9" s="1">
-        <v>-158.463000</v>
+        <v>-158.46299999999999</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>62310.259798</v>
+        <v>62310.259797999999</v>
       </c>
       <c r="L9" s="1">
         <v>17.308405</v>
       </c>
       <c r="M9" s="1">
-        <v>938.352000</v>
+        <v>938.35199999999998</v>
       </c>
       <c r="N9" s="1">
-        <v>-115.454000</v>
+        <v>-115.45399999999999</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>62320.809244</v>
+        <v>62320.809243999996</v>
       </c>
       <c r="Q9" s="1">
-        <v>17.311336</v>
+        <v>17.311336000000001</v>
       </c>
       <c r="R9" s="1">
-        <v>945.683000</v>
+        <v>945.68299999999999</v>
       </c>
       <c r="S9" s="1">
-        <v>-101.601000</v>
+        <v>-101.601</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>62331.017867</v>
+        <v>62331.017867000002</v>
       </c>
       <c r="V9" s="1">
-        <v>17.314172</v>
+        <v>17.314171999999999</v>
       </c>
       <c r="W9" s="1">
-        <v>952.861000</v>
+        <v>952.86099999999999</v>
       </c>
       <c r="X9" s="1">
-        <v>-87.652900</v>
+        <v>-87.652900000000002</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>62341.473038</v>
+        <v>62341.473037999996</v>
       </c>
       <c r="AA9" s="1">
         <v>17.317076</v>
       </c>
       <c r="AB9" s="1">
-        <v>960.758000</v>
+        <v>960.75800000000004</v>
       </c>
       <c r="AC9" s="1">
-        <v>-76.747400</v>
+        <v>-76.747399999999999</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
         <v>62352.023448</v>
@@ -2370,28 +2786,28 @@
         <v>17.320007</v>
       </c>
       <c r="AG9" s="1">
-        <v>965.880000</v>
+        <v>965.88</v>
       </c>
       <c r="AH9" s="1">
-        <v>-74.751200</v>
+        <v>-74.751199999999997</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>62362.484588</v>
+        <v>62362.484587999999</v>
       </c>
       <c r="AK9" s="1">
-        <v>17.322912</v>
+        <v>17.322911999999999</v>
       </c>
       <c r="AL9" s="1">
-        <v>973.408000</v>
+        <v>973.40800000000002</v>
       </c>
       <c r="AM9" s="1">
-        <v>-79.535900</v>
+        <v>-79.535899999999998</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
         <v>62373.226916</v>
@@ -2400,375 +2816,375 @@
         <v>17.325896</v>
       </c>
       <c r="AQ9" s="1">
-        <v>981.599000</v>
+        <v>981.59900000000005</v>
       </c>
       <c r="AR9" s="1">
-        <v>-91.024700</v>
+        <v>-91.024699999999996</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>62384.203880</v>
+        <v>62384.203880000001</v>
       </c>
       <c r="AU9" s="1">
-        <v>17.328946</v>
+        <v>17.328945999999998</v>
       </c>
       <c r="AV9" s="1">
-        <v>991.518000</v>
+        <v>991.51800000000003</v>
       </c>
       <c r="AW9" s="1">
-        <v>-108.669000</v>
+        <v>-108.669</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>62394.960155</v>
+        <v>62394.960155000001</v>
       </c>
       <c r="AZ9" s="1">
-        <v>17.331933</v>
+        <v>17.331932999999999</v>
       </c>
       <c r="BA9" s="1">
-        <v>999.800000</v>
+        <v>999.8</v>
       </c>
       <c r="BB9" s="1">
-        <v>-124.288000</v>
+        <v>-124.288</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>62405.966839</v>
+        <v>62405.966839000001</v>
       </c>
       <c r="BE9" s="1">
-        <v>17.334991</v>
+        <v>17.334990999999999</v>
       </c>
       <c r="BF9" s="1">
-        <v>1038.610000</v>
+        <v>1038.6099999999999</v>
       </c>
       <c r="BG9" s="1">
-        <v>-196.176000</v>
+        <v>-196.17599999999999</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>62417.389747</v>
+        <v>62417.389747000001</v>
       </c>
       <c r="BJ9" s="1">
-        <v>17.338164</v>
+        <v>17.338163999999999</v>
       </c>
       <c r="BK9" s="1">
-        <v>1105.970000</v>
+        <v>1105.97</v>
       </c>
       <c r="BL9" s="1">
-        <v>-312.372000</v>
+        <v>-312.37200000000001</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>62428.750570</v>
+        <v>62428.750569999997</v>
       </c>
       <c r="BO9" s="1">
-        <v>17.341320</v>
+        <v>17.34132</v>
       </c>
       <c r="BP9" s="1">
-        <v>1215.500000</v>
+        <v>1215.5</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-494.007000</v>
+        <v>-494.00700000000001</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>62439.560380</v>
+        <v>62439.560380000003</v>
       </c>
       <c r="BT9" s="1">
-        <v>17.344322</v>
+        <v>17.344321999999998</v>
       </c>
       <c r="BU9" s="1">
-        <v>1337.920000</v>
+        <v>1337.92</v>
       </c>
       <c r="BV9" s="1">
-        <v>-691.540000</v>
+        <v>-691.54</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>62450.340429</v>
+        <v>62450.340429000003</v>
       </c>
       <c r="BY9" s="1">
         <v>17.347317</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1474.170000</v>
+        <v>1474.17</v>
       </c>
       <c r="CA9" s="1">
-        <v>-901.720000</v>
+        <v>-901.72</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>62462.053949</v>
+        <v>62462.053949000001</v>
       </c>
       <c r="CD9" s="1">
-        <v>17.350571</v>
+        <v>17.350570999999999</v>
       </c>
       <c r="CE9" s="1">
-        <v>1826.900000</v>
+        <v>1826.9</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1397.640000</v>
+        <v>-1397.64</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>62290.643551</v>
+        <v>62290.643551000001</v>
       </c>
       <c r="B10" s="1">
-        <v>17.302957</v>
+        <v>17.302956999999999</v>
       </c>
       <c r="C10" s="1">
-        <v>900.890000</v>
+        <v>900.89</v>
       </c>
       <c r="D10" s="1">
-        <v>-186.286000</v>
+        <v>-186.286</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>62300.779763</v>
+        <v>62300.779762999999</v>
       </c>
       <c r="G10" s="1">
-        <v>17.305772</v>
+        <v>17.305772000000001</v>
       </c>
       <c r="H10" s="1">
-        <v>917.261000</v>
+        <v>917.26099999999997</v>
       </c>
       <c r="I10" s="1">
-        <v>-158.440000</v>
+        <v>-158.44</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>62310.605511</v>
+        <v>62310.605511000002</v>
       </c>
       <c r="L10" s="1">
-        <v>17.308502</v>
+        <v>17.308502000000001</v>
       </c>
       <c r="M10" s="1">
-        <v>938.281000</v>
+        <v>938.28099999999995</v>
       </c>
       <c r="N10" s="1">
-        <v>-115.418000</v>
+        <v>-115.41800000000001</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>62321.460953</v>
+        <v>62321.460953000002</v>
       </c>
       <c r="Q10" s="1">
-        <v>17.311517</v>
+        <v>17.311516999999998</v>
       </c>
       <c r="R10" s="1">
-        <v>945.701000</v>
+        <v>945.70100000000002</v>
       </c>
       <c r="S10" s="1">
-        <v>-101.534000</v>
+        <v>-101.53400000000001</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>62331.677547</v>
+        <v>62331.677546999999</v>
       </c>
       <c r="V10" s="1">
-        <v>17.314355</v>
+        <v>17.314354999999999</v>
       </c>
       <c r="W10" s="1">
-        <v>952.846000</v>
+        <v>952.846</v>
       </c>
       <c r="X10" s="1">
-        <v>-87.560600</v>
+        <v>-87.560599999999994</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>62341.860448</v>
+        <v>62341.860447999999</v>
       </c>
       <c r="AA10" s="1">
         <v>17.317183</v>
       </c>
       <c r="AB10" s="1">
-        <v>960.789000</v>
+        <v>960.78899999999999</v>
       </c>
       <c r="AC10" s="1">
-        <v>-76.867700</v>
+        <v>-76.867699999999999</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>62352.368656</v>
+        <v>62352.368655999999</v>
       </c>
       <c r="AF10" s="1">
-        <v>17.320102</v>
+        <v>17.320101999999999</v>
       </c>
       <c r="AG10" s="1">
-        <v>965.823000</v>
+        <v>965.82299999999998</v>
       </c>
       <c r="AH10" s="1">
-        <v>-74.737800</v>
+        <v>-74.737799999999993</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
         <v>62362.834273</v>
       </c>
       <c r="AK10" s="1">
-        <v>17.323010</v>
+        <v>17.32301</v>
       </c>
       <c r="AL10" s="1">
-        <v>973.452000</v>
+        <v>973.452</v>
       </c>
       <c r="AM10" s="1">
-        <v>-79.548700</v>
+        <v>-79.548699999999997</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>62373.587010</v>
+        <v>62373.587010000003</v>
       </c>
       <c r="AP10" s="1">
         <v>17.325996</v>
       </c>
       <c r="AQ10" s="1">
-        <v>981.606000</v>
+        <v>981.60599999999999</v>
       </c>
       <c r="AR10" s="1">
-        <v>-91.026000</v>
+        <v>-91.025999999999996</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>62384.628484</v>
+        <v>62384.628484000001</v>
       </c>
       <c r="AU10" s="1">
-        <v>17.329063</v>
+        <v>17.329063000000001</v>
       </c>
       <c r="AV10" s="1">
-        <v>991.517000</v>
+        <v>991.51700000000005</v>
       </c>
       <c r="AW10" s="1">
-        <v>-108.666000</v>
+        <v>-108.666</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>62395.382742</v>
+        <v>62395.382742000002</v>
       </c>
       <c r="AZ10" s="1">
         <v>17.332051</v>
       </c>
       <c r="BA10" s="1">
-        <v>999.772000</v>
+        <v>999.77200000000005</v>
       </c>
       <c r="BB10" s="1">
-        <v>-124.288000</v>
+        <v>-124.288</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>62406.272408</v>
+        <v>62406.272407999997</v>
       </c>
       <c r="BE10" s="1">
-        <v>17.335076</v>
+        <v>17.335076000000001</v>
       </c>
       <c r="BF10" s="1">
-        <v>1038.610000</v>
+        <v>1038.6099999999999</v>
       </c>
       <c r="BG10" s="1">
-        <v>-196.173000</v>
+        <v>-196.173</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
         <v>62417.764185</v>
       </c>
       <c r="BJ10" s="1">
-        <v>17.338268</v>
+        <v>17.338267999999999</v>
       </c>
       <c r="BK10" s="1">
-        <v>1105.990000</v>
+        <v>1105.99</v>
       </c>
       <c r="BL10" s="1">
-        <v>-312.386000</v>
+        <v>-312.38600000000002</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>62429.156825</v>
+        <v>62429.156824999998</v>
       </c>
       <c r="BO10" s="1">
-        <v>17.341432</v>
+        <v>17.341432000000001</v>
       </c>
       <c r="BP10" s="1">
-        <v>1215.470000</v>
+        <v>1215.47</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-493.984000</v>
+        <v>-493.98399999999998</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>62439.974580</v>
+        <v>62439.974580000002</v>
       </c>
       <c r="BT10" s="1">
-        <v>17.344437</v>
+        <v>17.344436999999999</v>
       </c>
       <c r="BU10" s="1">
-        <v>1337.860000</v>
+        <v>1337.86</v>
       </c>
       <c r="BV10" s="1">
-        <v>-691.636000</v>
+        <v>-691.63599999999997</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>62450.794269</v>
+        <v>62450.794268999998</v>
       </c>
       <c r="BY10" s="1">
-        <v>17.347443</v>
+        <v>17.347442999999998</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1474.200000</v>
+        <v>1474.2</v>
       </c>
       <c r="CA10" s="1">
-        <v>-901.820000</v>
+        <v>-901.82</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
         <v>62462.568797</v>
@@ -2777,362 +3193,362 @@
         <v>17.350714</v>
       </c>
       <c r="CE10" s="1">
-        <v>1826.960000</v>
+        <v>1826.96</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1398.900000</v>
+        <v>-1398.9</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>62290.993201</v>
+        <v>62290.993200999997</v>
       </c>
       <c r="B11" s="1">
-        <v>17.303054</v>
+        <v>17.303053999999999</v>
       </c>
       <c r="C11" s="1">
-        <v>900.815000</v>
+        <v>900.81500000000005</v>
       </c>
       <c r="D11" s="1">
-        <v>-186.239000</v>
+        <v>-186.239</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>62301.118070</v>
+        <v>62301.118069999997</v>
       </c>
       <c r="G11" s="1">
-        <v>17.305866</v>
+        <v>17.305866000000002</v>
       </c>
       <c r="H11" s="1">
-        <v>916.777000</v>
+        <v>916.77700000000004</v>
       </c>
       <c r="I11" s="1">
-        <v>-158.688000</v>
+        <v>-158.68799999999999</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>62311.263732</v>
+        <v>62311.263731999999</v>
       </c>
       <c r="L11" s="1">
         <v>17.308684</v>
       </c>
       <c r="M11" s="1">
-        <v>938.363000</v>
+        <v>938.36300000000006</v>
       </c>
       <c r="N11" s="1">
-        <v>-115.352000</v>
+        <v>-115.352</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>62321.855767</v>
+        <v>62321.855767000001</v>
       </c>
       <c r="Q11" s="1">
-        <v>17.311627</v>
+        <v>17.311627000000001</v>
       </c>
       <c r="R11" s="1">
-        <v>945.729000</v>
+        <v>945.72900000000004</v>
       </c>
       <c r="S11" s="1">
-        <v>-101.585000</v>
+        <v>-101.58499999999999</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
         <v>62332.046616</v>
       </c>
       <c r="V11" s="1">
-        <v>17.314457</v>
+        <v>17.314457000000001</v>
       </c>
       <c r="W11" s="1">
-        <v>952.935000</v>
+        <v>952.93499999999995</v>
       </c>
       <c r="X11" s="1">
-        <v>-87.680400</v>
+        <v>-87.680400000000006</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>62342.206621</v>
+        <v>62342.206620999998</v>
       </c>
       <c r="AA11" s="1">
-        <v>17.317280</v>
+        <v>17.31728</v>
       </c>
       <c r="AB11" s="1">
-        <v>960.787000</v>
+        <v>960.78700000000003</v>
       </c>
       <c r="AC11" s="1">
-        <v>-76.750000</v>
+        <v>-76.75</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>62352.709935</v>
+        <v>62352.709934999999</v>
       </c>
       <c r="AF11" s="1">
         <v>17.320197</v>
       </c>
       <c r="AG11" s="1">
-        <v>965.944000</v>
+        <v>965.94399999999996</v>
       </c>
       <c r="AH11" s="1">
-        <v>-74.765600</v>
+        <v>-74.765600000000006</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>62363.180480</v>
+        <v>62363.180480000003</v>
       </c>
       <c r="AK11" s="1">
-        <v>17.323106</v>
+        <v>17.323105999999999</v>
       </c>
       <c r="AL11" s="1">
-        <v>973.458000</v>
+        <v>973.45799999999997</v>
       </c>
       <c r="AM11" s="1">
-        <v>-79.560200</v>
+        <v>-79.560199999999995</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>62374.005144</v>
+        <v>62374.005144000002</v>
       </c>
       <c r="AP11" s="1">
-        <v>17.326113</v>
+        <v>17.326112999999999</v>
       </c>
       <c r="AQ11" s="1">
-        <v>981.588000</v>
+        <v>981.58799999999997</v>
       </c>
       <c r="AR11" s="1">
-        <v>-91.025400</v>
+        <v>-91.025400000000005</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>62384.929523</v>
+        <v>62384.929522999999</v>
       </c>
       <c r="AU11" s="1">
-        <v>17.329147</v>
+        <v>17.329146999999999</v>
       </c>
       <c r="AV11" s="1">
-        <v>991.497000</v>
+        <v>991.49699999999996</v>
       </c>
       <c r="AW11" s="1">
-        <v>-108.661000</v>
+        <v>-108.661</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>62395.674853</v>
+        <v>62395.674852999997</v>
       </c>
       <c r="AZ11" s="1">
-        <v>17.332132</v>
+        <v>17.332132000000001</v>
       </c>
       <c r="BA11" s="1">
-        <v>999.786000</v>
+        <v>999.78599999999994</v>
       </c>
       <c r="BB11" s="1">
-        <v>-124.275000</v>
+        <v>-124.27500000000001</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>62406.631975</v>
+        <v>62406.631974999997</v>
       </c>
       <c r="BE11" s="1">
-        <v>17.335176</v>
+        <v>17.335176000000001</v>
       </c>
       <c r="BF11" s="1">
-        <v>1038.620000</v>
+        <v>1038.6199999999999</v>
       </c>
       <c r="BG11" s="1">
-        <v>-196.203000</v>
+        <v>-196.203</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>62418.138664</v>
+        <v>62418.138663999998</v>
       </c>
       <c r="BJ11" s="1">
         <v>17.338372</v>
       </c>
       <c r="BK11" s="1">
-        <v>1105.980000</v>
+        <v>1105.98</v>
       </c>
       <c r="BL11" s="1">
-        <v>-312.363000</v>
+        <v>-312.363</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>62429.554121</v>
+        <v>62429.554121000001</v>
       </c>
       <c r="BO11" s="1">
-        <v>17.341543</v>
+        <v>17.341543000000001</v>
       </c>
       <c r="BP11" s="1">
-        <v>1215.510000</v>
+        <v>1215.51</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-494.011000</v>
+        <v>-494.01100000000002</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>62440.414522</v>
+        <v>62440.414521999999</v>
       </c>
       <c r="BT11" s="1">
-        <v>17.344560</v>
+        <v>17.344560000000001</v>
       </c>
       <c r="BU11" s="1">
-        <v>1337.770000</v>
+        <v>1337.77</v>
       </c>
       <c r="BV11" s="1">
-        <v>-691.698000</v>
+        <v>-691.69799999999998</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>62451.242192</v>
+        <v>62451.242191999998</v>
       </c>
       <c r="BY11" s="1">
-        <v>17.347567</v>
+        <v>17.347567000000002</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1474.070000</v>
+        <v>1474.07</v>
       </c>
       <c r="CA11" s="1">
-        <v>-901.795000</v>
+        <v>-901.79499999999996</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>62463.086621</v>
+        <v>62463.086621000002</v>
       </c>
       <c r="CD11" s="1">
-        <v>17.350857</v>
+        <v>17.350857000000001</v>
       </c>
       <c r="CE11" s="1">
-        <v>1828.180000</v>
+        <v>1828.18</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1398.500000</v>
+        <v>-1398.5</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
         <v>62291.645935</v>
       </c>
       <c r="B12" s="1">
-        <v>17.303235</v>
+        <v>17.303235000000001</v>
       </c>
       <c r="C12" s="1">
-        <v>900.858000</v>
+        <v>900.85799999999995</v>
       </c>
       <c r="D12" s="1">
-        <v>-186.259000</v>
+        <v>-186.25899999999999</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>62301.569890</v>
+        <v>62301.569889999999</v>
       </c>
       <c r="G12" s="1">
         <v>17.305992</v>
       </c>
       <c r="H12" s="1">
-        <v>916.779000</v>
+        <v>916.779</v>
       </c>
       <c r="I12" s="1">
-        <v>-158.653000</v>
+        <v>-158.65299999999999</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
         <v>62311.642644</v>
       </c>
       <c r="L12" s="1">
-        <v>17.308790</v>
+        <v>17.308789999999998</v>
       </c>
       <c r="M12" s="1">
-        <v>938.299000</v>
+        <v>938.29899999999998</v>
       </c>
       <c r="N12" s="1">
-        <v>-116.231000</v>
+        <v>-116.23099999999999</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>62322.204454</v>
+        <v>62322.204453999999</v>
       </c>
       <c r="Q12" s="1">
-        <v>17.311723</v>
+        <v>17.311723000000001</v>
       </c>
       <c r="R12" s="1">
-        <v>945.727000</v>
+        <v>945.72699999999998</v>
       </c>
       <c r="S12" s="1">
-        <v>-101.652000</v>
+        <v>-101.652</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>62332.392777</v>
+        <v>62332.392777000001</v>
       </c>
       <c r="V12" s="1">
-        <v>17.314554</v>
+        <v>17.314554000000001</v>
       </c>
       <c r="W12" s="1">
-        <v>952.963000</v>
+        <v>952.96299999999997</v>
       </c>
       <c r="X12" s="1">
-        <v>-87.663800</v>
+        <v>-87.663799999999995</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>62342.555309</v>
+        <v>62342.555309000003</v>
       </c>
       <c r="AA12" s="1">
-        <v>17.317376</v>
+        <v>17.317375999999999</v>
       </c>
       <c r="AB12" s="1">
-        <v>960.803000</v>
+        <v>960.803</v>
       </c>
       <c r="AC12" s="1">
-        <v>-76.731200</v>
+        <v>-76.731200000000001</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
         <v>62353.132029</v>
@@ -3141,195 +3557,195 @@
         <v>17.320314</v>
       </c>
       <c r="AG12" s="1">
-        <v>965.765000</v>
+        <v>965.76499999999999</v>
       </c>
       <c r="AH12" s="1">
-        <v>-74.889400</v>
+        <v>-74.889399999999995</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>62363.607009</v>
+        <v>62363.607008999999</v>
       </c>
       <c r="AK12" s="1">
         <v>17.323224</v>
       </c>
       <c r="AL12" s="1">
-        <v>973.443000</v>
+        <v>973.44299999999998</v>
       </c>
       <c r="AM12" s="1">
-        <v>-79.546600</v>
+        <v>-79.546599999999998</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>62374.311169</v>
+        <v>62374.311169000001</v>
       </c>
       <c r="AP12" s="1">
-        <v>17.326198</v>
+        <v>17.326198000000002</v>
       </c>
       <c r="AQ12" s="1">
-        <v>981.590000</v>
+        <v>981.59</v>
       </c>
       <c r="AR12" s="1">
-        <v>-91.027200</v>
+        <v>-91.027199999999993</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>62385.299043</v>
+        <v>62385.299042999999</v>
       </c>
       <c r="AU12" s="1">
-        <v>17.329250</v>
+        <v>17.329249999999998</v>
       </c>
       <c r="AV12" s="1">
-        <v>991.520000</v>
+        <v>991.52</v>
       </c>
       <c r="AW12" s="1">
-        <v>-108.673000</v>
+        <v>-108.673</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>62396.036470</v>
+        <v>62396.036469999999</v>
       </c>
       <c r="AZ12" s="1">
-        <v>17.332232</v>
+        <v>17.332232000000001</v>
       </c>
       <c r="BA12" s="1">
-        <v>999.783000</v>
+        <v>999.78300000000002</v>
       </c>
       <c r="BB12" s="1">
-        <v>-124.296000</v>
+        <v>-124.29600000000001</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>62406.992103</v>
+        <v>62406.992102999997</v>
       </c>
       <c r="BE12" s="1">
         <v>17.335276</v>
       </c>
       <c r="BF12" s="1">
-        <v>1038.610000</v>
+        <v>1038.6099999999999</v>
       </c>
       <c r="BG12" s="1">
-        <v>-196.166000</v>
+        <v>-196.166</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>62418.914903</v>
+        <v>62418.914902999997</v>
       </c>
       <c r="BJ12" s="1">
         <v>17.338587</v>
       </c>
       <c r="BK12" s="1">
-        <v>1106.030000</v>
+        <v>1106.03</v>
       </c>
       <c r="BL12" s="1">
-        <v>-312.371000</v>
+        <v>-312.37099999999998</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>62429.985112</v>
+        <v>62429.985112000002</v>
       </c>
       <c r="BO12" s="1">
         <v>17.341663</v>
       </c>
       <c r="BP12" s="1">
-        <v>1215.520000</v>
+        <v>1215.52</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-494.003000</v>
+        <v>-494.00299999999999</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>62440.843530</v>
+        <v>62440.843529999998</v>
       </c>
       <c r="BT12" s="1">
-        <v>17.344679</v>
+        <v>17.344678999999999</v>
       </c>
       <c r="BU12" s="1">
-        <v>1337.690000</v>
+        <v>1337.69</v>
       </c>
       <c r="BV12" s="1">
-        <v>-691.800000</v>
+        <v>-691.8</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
         <v>62451.700955</v>
       </c>
       <c r="BY12" s="1">
-        <v>17.347695</v>
+        <v>17.347695000000002</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1474.150000</v>
+        <v>1474.15</v>
       </c>
       <c r="CA12" s="1">
-        <v>-901.758000</v>
+        <v>-901.75800000000004</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>62463.605933</v>
+        <v>62463.605932999999</v>
       </c>
       <c r="CD12" s="1">
-        <v>17.351002</v>
+        <v>17.351002000000001</v>
       </c>
       <c r="CE12" s="1">
-        <v>1828.270000</v>
+        <v>1828.27</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1398.630000</v>
+        <v>-1398.63</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>62292.019422</v>
+        <v>62292.019421999998</v>
       </c>
       <c r="B13" s="1">
-        <v>17.303339</v>
+        <v>17.303339000000001</v>
       </c>
       <c r="C13" s="1">
-        <v>900.931000</v>
+        <v>900.93100000000004</v>
       </c>
       <c r="D13" s="1">
-        <v>-186.373000</v>
+        <v>-186.37299999999999</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>62301.823345</v>
+        <v>62301.823344999997</v>
       </c>
       <c r="G13" s="1">
-        <v>17.306062</v>
+        <v>17.306062000000001</v>
       </c>
       <c r="H13" s="1">
-        <v>916.743000</v>
+        <v>916.74300000000005</v>
       </c>
       <c r="I13" s="1">
-        <v>-158.776000</v>
+        <v>-158.77600000000001</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
         <v>62311.986868</v>
@@ -3338,889 +3754,889 @@
         <v>17.308885</v>
       </c>
       <c r="M13" s="1">
-        <v>938.353000</v>
+        <v>938.35299999999995</v>
       </c>
       <c r="N13" s="1">
-        <v>-116.260000</v>
+        <v>-116.26</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>62322.553142</v>
+        <v>62322.553141999997</v>
       </c>
       <c r="Q13" s="1">
-        <v>17.311820</v>
+        <v>17.311820000000001</v>
       </c>
       <c r="R13" s="1">
-        <v>945.721000</v>
+        <v>945.721</v>
       </c>
       <c r="S13" s="1">
-        <v>-101.666000</v>
+        <v>-101.666</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>62332.735053</v>
+        <v>62332.735052999997</v>
       </c>
       <c r="V13" s="1">
-        <v>17.314649</v>
+        <v>17.314648999999999</v>
       </c>
       <c r="W13" s="1">
-        <v>952.921000</v>
+        <v>952.92100000000005</v>
       </c>
       <c r="X13" s="1">
-        <v>-87.649000</v>
+        <v>-87.649000000000001</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>62342.978435</v>
+        <v>62342.978434999997</v>
       </c>
       <c r="AA13" s="1">
         <v>17.317494</v>
       </c>
       <c r="AB13" s="1">
-        <v>960.724000</v>
+        <v>960.72400000000005</v>
       </c>
       <c r="AC13" s="1">
-        <v>-76.745900</v>
+        <v>-76.745900000000006</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>62353.404303</v>
+        <v>62353.404303000003</v>
       </c>
       <c r="AF13" s="1">
-        <v>17.320390</v>
+        <v>17.32039</v>
       </c>
       <c r="AG13" s="1">
-        <v>965.709000</v>
+        <v>965.70899999999995</v>
       </c>
       <c r="AH13" s="1">
-        <v>-74.919100</v>
+        <v>-74.9191</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>62363.879311</v>
+        <v>62363.879310999997</v>
       </c>
       <c r="AK13" s="1">
-        <v>17.323300</v>
+        <v>17.3233</v>
       </c>
       <c r="AL13" s="1">
-        <v>973.430000</v>
+        <v>973.43</v>
       </c>
       <c r="AM13" s="1">
-        <v>-79.523900</v>
+        <v>-79.523899999999998</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>62374.658371</v>
+        <v>62374.658370999998</v>
       </c>
       <c r="AP13" s="1">
-        <v>17.326294</v>
+        <v>17.326294000000001</v>
       </c>
       <c r="AQ13" s="1">
-        <v>981.602000</v>
+        <v>981.60199999999998</v>
       </c>
       <c r="AR13" s="1">
-        <v>-91.014800</v>
+        <v>-91.014799999999994</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>62385.662643</v>
+        <v>62385.662643000003</v>
       </c>
       <c r="AU13" s="1">
-        <v>17.329351</v>
+        <v>17.329350999999999</v>
       </c>
       <c r="AV13" s="1">
-        <v>991.514000</v>
+        <v>991.51400000000001</v>
       </c>
       <c r="AW13" s="1">
-        <v>-108.681000</v>
+        <v>-108.681</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>62396.397065</v>
+        <v>62396.397064999997</v>
       </c>
       <c r="AZ13" s="1">
-        <v>17.332333</v>
+        <v>17.332332999999998</v>
       </c>
       <c r="BA13" s="1">
-        <v>999.791000</v>
+        <v>999.79100000000005</v>
       </c>
       <c r="BB13" s="1">
-        <v>-124.296000</v>
+        <v>-124.29600000000001</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>62407.716725</v>
+        <v>62407.716724999998</v>
       </c>
       <c r="BE13" s="1">
-        <v>17.335477</v>
+        <v>17.335477000000001</v>
       </c>
       <c r="BF13" s="1">
-        <v>1038.610000</v>
+        <v>1038.6099999999999</v>
       </c>
       <c r="BG13" s="1">
-        <v>-196.170000</v>
+        <v>-196.17</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>62419.289920</v>
+        <v>62419.289920000003</v>
       </c>
       <c r="BJ13" s="1">
-        <v>17.338692</v>
+        <v>17.338692000000002</v>
       </c>
       <c r="BK13" s="1">
-        <v>1105.990000</v>
+        <v>1105.99</v>
       </c>
       <c r="BL13" s="1">
-        <v>-312.374000</v>
+        <v>-312.37400000000002</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>62430.373481</v>
+        <v>62430.373481000002</v>
       </c>
       <c r="BO13" s="1">
-        <v>17.341770</v>
+        <v>17.34177</v>
       </c>
       <c r="BP13" s="1">
-        <v>1215.540000</v>
+        <v>1215.54</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-493.981000</v>
+        <v>-493.98099999999999</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>62441.253722</v>
+        <v>62441.253722000001</v>
       </c>
       <c r="BT13" s="1">
-        <v>17.344793</v>
+        <v>17.344792999999999</v>
       </c>
       <c r="BU13" s="1">
-        <v>1337.690000</v>
+        <v>1337.69</v>
       </c>
       <c r="BV13" s="1">
-        <v>-691.902000</v>
+        <v>-691.90200000000004</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>62452.459867</v>
+        <v>62452.459866999998</v>
       </c>
       <c r="BY13" s="1">
-        <v>17.347906</v>
+        <v>17.347905999999998</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1474.070000</v>
+        <v>1474.07</v>
       </c>
       <c r="CA13" s="1">
-        <v>-901.734000</v>
+        <v>-901.73400000000004</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>62464.480384</v>
+        <v>62464.480384000002</v>
       </c>
       <c r="CD13" s="1">
-        <v>17.351245</v>
+        <v>17.351244999999999</v>
       </c>
       <c r="CE13" s="1">
-        <v>1827.520000</v>
+        <v>1827.52</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1399.180000</v>
+        <v>-1399.18</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>62292.367118</v>
+        <v>62292.367118000002</v>
       </c>
       <c r="B14" s="1">
         <v>17.303435</v>
       </c>
       <c r="C14" s="1">
-        <v>900.964000</v>
+        <v>900.96400000000006</v>
       </c>
       <c r="D14" s="1">
-        <v>-186.398000</v>
+        <v>-186.398</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>62302.166089</v>
+        <v>62302.166088999998</v>
       </c>
       <c r="G14" s="1">
-        <v>17.306157</v>
+        <v>17.306156999999999</v>
       </c>
       <c r="H14" s="1">
-        <v>916.595000</v>
+        <v>916.59500000000003</v>
       </c>
       <c r="I14" s="1">
-        <v>-158.591000</v>
+        <v>-158.59100000000001</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>62312.330632</v>
+        <v>62312.330631999997</v>
       </c>
       <c r="L14" s="1">
-        <v>17.308981</v>
+        <v>17.308980999999999</v>
       </c>
       <c r="M14" s="1">
-        <v>938.459000</v>
+        <v>938.45899999999995</v>
       </c>
       <c r="N14" s="1">
-        <v>-116.469000</v>
+        <v>-116.46899999999999</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>62322.968826</v>
+        <v>62322.968825999997</v>
       </c>
       <c r="Q14" s="1">
-        <v>17.311936</v>
+        <v>17.311935999999999</v>
       </c>
       <c r="R14" s="1">
-        <v>945.715000</v>
+        <v>945.71500000000003</v>
       </c>
       <c r="S14" s="1">
-        <v>-101.603000</v>
+        <v>-101.60299999999999</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>62333.163560</v>
+        <v>62333.163560000001</v>
       </c>
       <c r="V14" s="1">
-        <v>17.314768</v>
+        <v>17.314768000000001</v>
       </c>
       <c r="W14" s="1">
-        <v>952.926000</v>
+        <v>952.92600000000004</v>
       </c>
       <c r="X14" s="1">
-        <v>-87.565000</v>
+        <v>-87.564999999999998</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>62343.257182</v>
+        <v>62343.257182000001</v>
       </c>
       <c r="AA14" s="1">
-        <v>17.317571</v>
+        <v>17.317571000000001</v>
       </c>
       <c r="AB14" s="1">
-        <v>960.745000</v>
+        <v>960.745</v>
       </c>
       <c r="AC14" s="1">
-        <v>-76.730700</v>
+        <v>-76.730699999999999</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>62353.747533</v>
+        <v>62353.747533000002</v>
       </c>
       <c r="AF14" s="1">
-        <v>17.320485</v>
+        <v>17.320485000000001</v>
       </c>
       <c r="AG14" s="1">
-        <v>965.919000</v>
+        <v>965.91899999999998</v>
       </c>
       <c r="AH14" s="1">
-        <v>-74.628500</v>
+        <v>-74.628500000000003</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>62364.227502</v>
+        <v>62364.227502000002</v>
       </c>
       <c r="AK14" s="1">
         <v>17.323397</v>
       </c>
       <c r="AL14" s="1">
-        <v>973.418000</v>
+        <v>973.41800000000001</v>
       </c>
       <c r="AM14" s="1">
-        <v>-79.556100</v>
+        <v>-79.556100000000001</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>62375.031362</v>
+        <v>62375.031362000002</v>
       </c>
       <c r="AP14" s="1">
-        <v>17.326398</v>
+        <v>17.326398000000001</v>
       </c>
       <c r="AQ14" s="1">
-        <v>981.591000</v>
+        <v>981.59100000000001</v>
       </c>
       <c r="AR14" s="1">
-        <v>-91.030800</v>
+        <v>-91.030799999999999</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>62386.394705</v>
+        <v>62386.394704999999</v>
       </c>
       <c r="AU14" s="1">
-        <v>17.329554</v>
+        <v>17.329554000000002</v>
       </c>
       <c r="AV14" s="1">
-        <v>991.523000</v>
+        <v>991.52300000000002</v>
       </c>
       <c r="AW14" s="1">
-        <v>-108.675000</v>
+        <v>-108.675</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>62397.116731</v>
+        <v>62397.116731000002</v>
       </c>
       <c r="AZ14" s="1">
         <v>17.332532</v>
       </c>
       <c r="BA14" s="1">
-        <v>999.793000</v>
+        <v>999.79300000000001</v>
       </c>
       <c r="BB14" s="1">
-        <v>-124.282000</v>
+        <v>-124.282</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>62408.106085</v>
+        <v>62408.106084999999</v>
       </c>
       <c r="BE14" s="1">
-        <v>17.335585</v>
+        <v>17.335584999999998</v>
       </c>
       <c r="BF14" s="1">
-        <v>1038.590000</v>
+        <v>1038.5899999999999</v>
       </c>
       <c r="BG14" s="1">
-        <v>-196.197000</v>
+        <v>-196.197</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>62419.665847</v>
+        <v>62419.665846999997</v>
       </c>
       <c r="BJ14" s="1">
-        <v>17.338796</v>
+        <v>17.338795999999999</v>
       </c>
       <c r="BK14" s="1">
-        <v>1106.000000</v>
+        <v>1106</v>
       </c>
       <c r="BL14" s="1">
-        <v>-312.349000</v>
+        <v>-312.34899999999999</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>62430.793623</v>
+        <v>62430.793622999998</v>
       </c>
       <c r="BO14" s="1">
         <v>17.341887</v>
       </c>
       <c r="BP14" s="1">
-        <v>1215.500000</v>
+        <v>1215.5</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-494.004000</v>
+        <v>-494.00400000000002</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>62441.994248</v>
+        <v>62441.994248000003</v>
       </c>
       <c r="BT14" s="1">
         <v>17.344998</v>
       </c>
       <c r="BU14" s="1">
-        <v>1337.780000</v>
+        <v>1337.78</v>
       </c>
       <c r="BV14" s="1">
-        <v>-692.006000</v>
+        <v>-692.00599999999997</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
         <v>62452.598714</v>
       </c>
       <c r="BY14" s="1">
-        <v>17.347944</v>
+        <v>17.347943999999998</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1474.180000</v>
+        <v>1474.18</v>
       </c>
       <c r="CA14" s="1">
-        <v>-901.668000</v>
+        <v>-901.66800000000001</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>62464.675306</v>
+        <v>62464.675305999997</v>
       </c>
       <c r="CD14" s="1">
-        <v>17.351299</v>
+        <v>17.351299000000001</v>
       </c>
       <c r="CE14" s="1">
-        <v>1828.150000</v>
+        <v>1828.15</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1398.040000</v>
+        <v>-1398.04</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>62292.707405</v>
+        <v>62292.707405000001</v>
       </c>
       <c r="B15" s="1">
-        <v>17.303530</v>
+        <v>17.303529999999999</v>
       </c>
       <c r="C15" s="1">
-        <v>901.098000</v>
+        <v>901.09799999999996</v>
       </c>
       <c r="D15" s="1">
-        <v>-186.434000</v>
+        <v>-186.434</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>62302.595158</v>
+        <v>62302.595157999996</v>
       </c>
       <c r="G15" s="1">
         <v>17.306276</v>
       </c>
       <c r="H15" s="1">
-        <v>916.586000</v>
+        <v>916.58600000000001</v>
       </c>
       <c r="I15" s="1">
-        <v>-158.566000</v>
+        <v>-158.566</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>62312.748757</v>
+        <v>62312.748757000001</v>
       </c>
       <c r="L15" s="1">
-        <v>17.309097</v>
+        <v>17.309097000000001</v>
       </c>
       <c r="M15" s="1">
-        <v>938.325000</v>
+        <v>938.32500000000005</v>
       </c>
       <c r="N15" s="1">
-        <v>-116.488000</v>
+        <v>-116.488</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>62323.264406</v>
+        <v>62323.264406000002</v>
       </c>
       <c r="Q15" s="1">
-        <v>17.312018</v>
+        <v>17.312017999999998</v>
       </c>
       <c r="R15" s="1">
-        <v>945.705000</v>
+        <v>945.70500000000004</v>
       </c>
       <c r="S15" s="1">
-        <v>-101.664000</v>
+        <v>-101.664</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>62333.428919</v>
+        <v>62333.428918999998</v>
       </c>
       <c r="V15" s="1">
-        <v>17.314841</v>
+        <v>17.314841000000001</v>
       </c>
       <c r="W15" s="1">
-        <v>953.006000</v>
+        <v>953.00599999999997</v>
       </c>
       <c r="X15" s="1">
-        <v>-87.562500</v>
+        <v>-87.5625</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>62343.605338</v>
+        <v>62343.605338000001</v>
       </c>
       <c r="AA15" s="1">
-        <v>17.317668</v>
+        <v>17.317668000000001</v>
       </c>
       <c r="AB15" s="1">
-        <v>960.750000</v>
+        <v>960.75</v>
       </c>
       <c r="AC15" s="1">
-        <v>-76.757100</v>
+        <v>-76.757099999999994</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>62354.086796</v>
+        <v>62354.086796000003</v>
       </c>
       <c r="AF15" s="1">
-        <v>17.320580</v>
+        <v>17.32058</v>
       </c>
       <c r="AG15" s="1">
-        <v>965.918000</v>
+        <v>965.91800000000001</v>
       </c>
       <c r="AH15" s="1">
-        <v>-74.674400</v>
+        <v>-74.674400000000006</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>62364.577182</v>
+        <v>62364.577182000001</v>
       </c>
       <c r="AK15" s="1">
         <v>17.323494</v>
       </c>
       <c r="AL15" s="1">
-        <v>973.376000</v>
+        <v>973.37599999999998</v>
       </c>
       <c r="AM15" s="1">
-        <v>-79.522000</v>
+        <v>-79.522000000000006</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>62375.747087</v>
+        <v>62375.747087000003</v>
       </c>
       <c r="AP15" s="1">
-        <v>17.326596</v>
+        <v>17.326595999999999</v>
       </c>
       <c r="AQ15" s="1">
-        <v>981.610000</v>
+        <v>981.61</v>
       </c>
       <c r="AR15" s="1">
-        <v>-91.034100</v>
+        <v>-91.034099999999995</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>62386.778609</v>
+        <v>62386.778609000001</v>
       </c>
       <c r="AU15" s="1">
-        <v>17.329661</v>
+        <v>17.329661000000002</v>
       </c>
       <c r="AV15" s="1">
-        <v>991.528000</v>
+        <v>991.52800000000002</v>
       </c>
       <c r="AW15" s="1">
-        <v>-108.677000</v>
+        <v>-108.67700000000001</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>62397.492195</v>
+        <v>62397.492194999999</v>
       </c>
       <c r="AZ15" s="1">
-        <v>17.332637</v>
+        <v>17.332636999999998</v>
       </c>
       <c r="BA15" s="1">
-        <v>999.803000</v>
+        <v>999.803</v>
       </c>
       <c r="BB15" s="1">
-        <v>-124.296000</v>
+        <v>-124.29600000000001</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>62408.484036</v>
+        <v>62408.484036000002</v>
       </c>
       <c r="BE15" s="1">
-        <v>17.335690</v>
+        <v>17.33569</v>
       </c>
       <c r="BF15" s="1">
-        <v>1038.610000</v>
+        <v>1038.6099999999999</v>
       </c>
       <c r="BG15" s="1">
-        <v>-196.189000</v>
+        <v>-196.18899999999999</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>62420.356804</v>
+        <v>62420.356804000003</v>
       </c>
       <c r="BJ15" s="1">
-        <v>17.338988</v>
+        <v>17.338988000000001</v>
       </c>
       <c r="BK15" s="1">
-        <v>1106.000000</v>
+        <v>1106</v>
       </c>
       <c r="BL15" s="1">
-        <v>-312.398000</v>
+        <v>-312.39800000000002</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>62431.501383</v>
+        <v>62431.501383000003</v>
       </c>
       <c r="BO15" s="1">
         <v>17.342084</v>
       </c>
       <c r="BP15" s="1">
-        <v>1215.510000</v>
+        <v>1215.51</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-494.020000</v>
+        <v>-494.02</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>62442.110840</v>
+        <v>62442.110840000001</v>
       </c>
       <c r="BT15" s="1">
-        <v>17.345031</v>
+        <v>17.345030999999999</v>
       </c>
       <c r="BU15" s="1">
-        <v>1337.900000</v>
+        <v>1337.9</v>
       </c>
       <c r="BV15" s="1">
-        <v>-692.114000</v>
+        <v>-692.11400000000003</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>62453.022330</v>
+        <v>62453.02233</v>
       </c>
       <c r="BY15" s="1">
-        <v>17.348062</v>
+        <v>17.348061999999999</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1474.180000</v>
+        <v>1474.18</v>
       </c>
       <c r="CA15" s="1">
-        <v>-901.702000</v>
+        <v>-901.702</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>62465.207030</v>
+        <v>62465.207029999998</v>
       </c>
       <c r="CD15" s="1">
-        <v>17.351446</v>
+        <v>17.351445999999999</v>
       </c>
       <c r="CE15" s="1">
-        <v>1826.620000</v>
+        <v>1826.62</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1398.200000</v>
+        <v>-1398.2</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>62293.128018</v>
+        <v>62293.128018000003</v>
       </c>
       <c r="B16" s="1">
-        <v>17.303647</v>
+        <v>17.303647000000002</v>
       </c>
       <c r="C16" s="1">
-        <v>900.905000</v>
+        <v>900.90499999999997</v>
       </c>
       <c r="D16" s="1">
-        <v>-186.390000</v>
+        <v>-186.39</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>62302.865471</v>
+        <v>62302.865470999997</v>
       </c>
       <c r="G16" s="1">
         <v>17.306352</v>
       </c>
       <c r="H16" s="1">
-        <v>917.252000</v>
+        <v>917.25199999999995</v>
       </c>
       <c r="I16" s="1">
-        <v>-158.459000</v>
+        <v>-158.459</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>62313.043842</v>
+        <v>62313.043841999999</v>
       </c>
       <c r="L16" s="1">
         <v>17.309179</v>
       </c>
       <c r="M16" s="1">
-        <v>938.449000</v>
+        <v>938.44899999999996</v>
       </c>
       <c r="N16" s="1">
-        <v>-116.329000</v>
+        <v>-116.32899999999999</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>62323.616564</v>
+        <v>62323.616564000004</v>
       </c>
       <c r="Q16" s="1">
         <v>17.312116</v>
       </c>
       <c r="R16" s="1">
-        <v>945.713000</v>
+        <v>945.71299999999997</v>
       </c>
       <c r="S16" s="1">
-        <v>-101.638000</v>
+        <v>-101.63800000000001</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>62333.774632</v>
+        <v>62333.774632000001</v>
       </c>
       <c r="V16" s="1">
         <v>17.314937</v>
       </c>
       <c r="W16" s="1">
-        <v>952.960000</v>
+        <v>952.96</v>
       </c>
       <c r="X16" s="1">
-        <v>-87.528300</v>
+        <v>-87.528300000000002</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
         <v>62343.954522</v>
       </c>
       <c r="AA16" s="1">
-        <v>17.317765</v>
+        <v>17.317765000000001</v>
       </c>
       <c r="AB16" s="1">
-        <v>960.805000</v>
+        <v>960.80499999999995</v>
       </c>
       <c r="AC16" s="1">
-        <v>-76.773000</v>
+        <v>-76.772999999999996</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>62354.774384</v>
+        <v>62354.774383999997</v>
       </c>
       <c r="AF16" s="1">
-        <v>17.320771</v>
+        <v>17.320771000000001</v>
       </c>
       <c r="AG16" s="1">
-        <v>965.912000</v>
+        <v>965.91200000000003</v>
       </c>
       <c r="AH16" s="1">
-        <v>-74.724700</v>
+        <v>-74.724699999999999</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>62365.277534</v>
+        <v>62365.277534000001</v>
       </c>
       <c r="AK16" s="1">
-        <v>17.323688</v>
+        <v>17.323688000000001</v>
       </c>
       <c r="AL16" s="1">
-        <v>973.396000</v>
+        <v>973.39599999999996</v>
       </c>
       <c r="AM16" s="1">
-        <v>-79.558700</v>
+        <v>-79.558700000000002</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>62376.112143</v>
+        <v>62376.112142999998</v>
       </c>
       <c r="AP16" s="1">
         <v>17.326698</v>
       </c>
       <c r="AQ16" s="1">
-        <v>981.605000</v>
+        <v>981.60500000000002</v>
       </c>
       <c r="AR16" s="1">
-        <v>-91.033400</v>
+        <v>-91.0334</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>62387.139236</v>
+        <v>62387.139236000003</v>
       </c>
       <c r="AU16" s="1">
-        <v>17.329761</v>
+        <v>17.329761000000001</v>
       </c>
       <c r="AV16" s="1">
-        <v>991.512000</v>
+        <v>991.51199999999994</v>
       </c>
       <c r="AW16" s="1">
-        <v>-108.670000</v>
+        <v>-108.67</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
         <v>62397.870486</v>
@@ -4229,300 +4645,300 @@
         <v>17.332742</v>
       </c>
       <c r="BA16" s="1">
-        <v>999.803000</v>
+        <v>999.803</v>
       </c>
       <c r="BB16" s="1">
-        <v>-124.285000</v>
+        <v>-124.285</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>62409.158629</v>
+        <v>62409.158628999998</v>
       </c>
       <c r="BE16" s="1">
         <v>17.335877</v>
       </c>
       <c r="BF16" s="1">
-        <v>1038.610000</v>
+        <v>1038.6099999999999</v>
       </c>
       <c r="BG16" s="1">
-        <v>-196.165000</v>
+        <v>-196.16499999999999</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>62420.821556</v>
+        <v>62420.821556000003</v>
       </c>
       <c r="BJ16" s="1">
-        <v>17.339117</v>
+        <v>17.339117000000002</v>
       </c>
       <c r="BK16" s="1">
-        <v>1105.990000</v>
+        <v>1105.99</v>
       </c>
       <c r="BL16" s="1">
-        <v>-312.380000</v>
+        <v>-312.38</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>62431.627861</v>
+        <v>62431.627861000001</v>
       </c>
       <c r="BO16" s="1">
         <v>17.342119</v>
       </c>
       <c r="BP16" s="1">
-        <v>1215.540000</v>
+        <v>1215.54</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-493.982000</v>
+        <v>-493.98200000000003</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>62442.551751</v>
+        <v>62442.551750999999</v>
       </c>
       <c r="BT16" s="1">
         <v>17.345153</v>
       </c>
       <c r="BU16" s="1">
-        <v>1337.940000</v>
+        <v>1337.94</v>
       </c>
       <c r="BV16" s="1">
-        <v>-692.118000</v>
+        <v>-692.11800000000005</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>62453.445386</v>
+        <v>62453.445385999999</v>
       </c>
       <c r="BY16" s="1">
-        <v>17.348179</v>
+        <v>17.348178999999998</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1474.130000</v>
+        <v>1474.13</v>
       </c>
       <c r="CA16" s="1">
-        <v>-901.666000</v>
+        <v>-901.66600000000005</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>62465.745674</v>
+        <v>62465.745673999998</v>
       </c>
       <c r="CD16" s="1">
-        <v>17.351596</v>
+        <v>17.351596000000001</v>
       </c>
       <c r="CE16" s="1">
-        <v>1828.400000</v>
+        <v>1828.4</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1398.550000</v>
+        <v>-1398.55</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>62293.406764</v>
+        <v>62293.406763999999</v>
       </c>
       <c r="B17" s="1">
-        <v>17.303724</v>
+        <v>17.303723999999999</v>
       </c>
       <c r="C17" s="1">
-        <v>900.842000</v>
+        <v>900.84199999999998</v>
       </c>
       <c r="D17" s="1">
-        <v>-186.406000</v>
+        <v>-186.40600000000001</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>62303.210688</v>
+        <v>62303.210687999999</v>
       </c>
       <c r="G17" s="1">
-        <v>17.306447</v>
+        <v>17.306446999999999</v>
       </c>
       <c r="H17" s="1">
-        <v>916.602000</v>
+        <v>916.60199999999998</v>
       </c>
       <c r="I17" s="1">
-        <v>-158.304000</v>
+        <v>-158.304</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>62313.390049</v>
+        <v>62313.390049000001</v>
       </c>
       <c r="L17" s="1">
         <v>17.309275</v>
       </c>
       <c r="M17" s="1">
-        <v>938.493000</v>
+        <v>938.49300000000005</v>
       </c>
       <c r="N17" s="1">
-        <v>-116.558000</v>
+        <v>-116.55800000000001</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>62323.964260</v>
+        <v>62323.964260000001</v>
       </c>
       <c r="Q17" s="1">
-        <v>17.312212</v>
+        <v>17.312211999999999</v>
       </c>
       <c r="R17" s="1">
-        <v>945.792000</v>
+        <v>945.79200000000003</v>
       </c>
       <c r="S17" s="1">
-        <v>-101.646000</v>
+        <v>-101.646</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
         <v>62334.450182</v>
       </c>
       <c r="V17" s="1">
-        <v>17.315125</v>
+        <v>17.315124999999998</v>
       </c>
       <c r="W17" s="1">
-        <v>952.798000</v>
+        <v>952.798</v>
       </c>
       <c r="X17" s="1">
-        <v>-87.551800</v>
+        <v>-87.5518</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>62344.652431</v>
+        <v>62344.652431000002</v>
       </c>
       <c r="AA17" s="1">
-        <v>17.317959</v>
+        <v>17.317958999999998</v>
       </c>
       <c r="AB17" s="1">
-        <v>960.852000</v>
+        <v>960.85199999999998</v>
       </c>
       <c r="AC17" s="1">
-        <v>-76.706300</v>
+        <v>-76.706299999999999</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>62355.118476</v>
+        <v>62355.118476000003</v>
       </c>
       <c r="AF17" s="1">
-        <v>17.320866</v>
+        <v>17.320865999999999</v>
       </c>
       <c r="AG17" s="1">
-        <v>965.880000</v>
+        <v>965.88</v>
       </c>
       <c r="AH17" s="1">
-        <v>-74.750100</v>
+        <v>-74.750100000000003</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>62365.622781</v>
+        <v>62365.622780999998</v>
       </c>
       <c r="AK17" s="1">
         <v>17.323784</v>
       </c>
       <c r="AL17" s="1">
-        <v>973.430000</v>
+        <v>973.43</v>
       </c>
       <c r="AM17" s="1">
-        <v>-79.513700</v>
+        <v>-79.5137</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
         <v>62376.470254</v>
       </c>
       <c r="AP17" s="1">
-        <v>17.326797</v>
+        <v>17.326796999999999</v>
       </c>
       <c r="AQ17" s="1">
-        <v>981.607000</v>
+        <v>981.60699999999997</v>
       </c>
       <c r="AR17" s="1">
-        <v>-91.039200</v>
+        <v>-91.039199999999994</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>62387.816240</v>
+        <v>62387.81624</v>
       </c>
       <c r="AU17" s="1">
-        <v>17.329949</v>
+        <v>17.329948999999999</v>
       </c>
       <c r="AV17" s="1">
-        <v>991.512000</v>
+        <v>991.51199999999994</v>
       </c>
       <c r="AW17" s="1">
-        <v>-108.688000</v>
+        <v>-108.688</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>62398.543219</v>
+        <v>62398.543218999999</v>
       </c>
       <c r="AZ17" s="1">
         <v>17.332929</v>
       </c>
       <c r="BA17" s="1">
-        <v>999.795000</v>
+        <v>999.79499999999996</v>
       </c>
       <c r="BB17" s="1">
-        <v>-124.296000</v>
+        <v>-124.29600000000001</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>62409.566834</v>
+        <v>62409.566833999997</v>
       </c>
       <c r="BE17" s="1">
         <v>17.335991</v>
       </c>
       <c r="BF17" s="1">
-        <v>1038.610000</v>
+        <v>1038.6099999999999</v>
       </c>
       <c r="BG17" s="1">
-        <v>-196.193000</v>
+        <v>-196.19300000000001</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>62421.209920</v>
+        <v>62421.209920000001</v>
       </c>
       <c r="BJ17" s="1">
-        <v>17.339225</v>
+        <v>17.339224999999999</v>
       </c>
       <c r="BK17" s="1">
-        <v>1106.000000</v>
+        <v>1106</v>
       </c>
       <c r="BL17" s="1">
-        <v>-312.397000</v>
+        <v>-312.39699999999999</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
         <v>62432.037097</v>
@@ -4531,13 +4947,13 @@
         <v>17.342233</v>
       </c>
       <c r="BP17" s="1">
-        <v>1215.530000</v>
+        <v>1215.53</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-493.982000</v>
+        <v>-493.98200000000003</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
         <v>62442.959959</v>
@@ -4546,28 +4962,28 @@
         <v>17.345267</v>
       </c>
       <c r="BU17" s="1">
-        <v>1338.070000</v>
+        <v>1338.07</v>
       </c>
       <c r="BV17" s="1">
-        <v>-692.134000</v>
+        <v>-692.13400000000001</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>62453.877400</v>
+        <v>62453.877399999998</v>
       </c>
       <c r="BY17" s="1">
-        <v>17.348299</v>
+        <v>17.348299000000001</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1474.150000</v>
+        <v>1474.15</v>
       </c>
       <c r="CA17" s="1">
-        <v>-901.681000</v>
+        <v>-901.68100000000004</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
         <v>62466.315595</v>
@@ -4576,75 +4992,75 @@
         <v>17.351754</v>
       </c>
       <c r="CE17" s="1">
-        <v>1826.690000</v>
+        <v>1826.69</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1398.740000</v>
+        <v>-1398.74</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>62293.751980</v>
+        <v>62293.751980000001</v>
       </c>
       <c r="B18" s="1">
-        <v>17.303820</v>
+        <v>17.303820000000002</v>
       </c>
       <c r="C18" s="1">
-        <v>900.822000</v>
+        <v>900.822</v>
       </c>
       <c r="D18" s="1">
-        <v>-186.318000</v>
+        <v>-186.31800000000001</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>62303.552895</v>
+        <v>62303.552895000001</v>
       </c>
       <c r="G18" s="1">
         <v>17.306542</v>
       </c>
       <c r="H18" s="1">
-        <v>916.845000</v>
+        <v>916.84500000000003</v>
       </c>
       <c r="I18" s="1">
-        <v>-158.618000</v>
+        <v>-158.61799999999999</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>62313.733779</v>
+        <v>62313.733779000002</v>
       </c>
       <c r="L18" s="1">
-        <v>17.309370</v>
+        <v>17.309370000000001</v>
       </c>
       <c r="M18" s="1">
-        <v>938.479000</v>
+        <v>938.47900000000004</v>
       </c>
       <c r="N18" s="1">
-        <v>-116.375000</v>
+        <v>-116.375</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>62324.660464</v>
+        <v>62324.660464000001</v>
       </c>
       <c r="Q18" s="1">
-        <v>17.312406</v>
+        <v>17.312405999999999</v>
       </c>
       <c r="R18" s="1">
-        <v>945.770000</v>
+        <v>945.77</v>
       </c>
       <c r="S18" s="1">
-        <v>-101.646000</v>
+        <v>-101.646</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
         <v>62334.803344</v>
@@ -4653,405 +5069,405 @@
         <v>17.315223</v>
       </c>
       <c r="W18" s="1">
-        <v>952.868000</v>
+        <v>952.86800000000005</v>
       </c>
       <c r="X18" s="1">
-        <v>-87.653800</v>
+        <v>-87.653800000000004</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>62345.000088</v>
+        <v>62345.000088000001</v>
       </c>
       <c r="AA18" s="1">
-        <v>17.318056</v>
+        <v>17.318055999999999</v>
       </c>
       <c r="AB18" s="1">
-        <v>960.725000</v>
+        <v>960.72500000000002</v>
       </c>
       <c r="AC18" s="1">
-        <v>-76.765700</v>
+        <v>-76.765699999999995</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>62355.460747</v>
+        <v>62355.460746999997</v>
       </c>
       <c r="AF18" s="1">
         <v>17.320961</v>
       </c>
       <c r="AG18" s="1">
-        <v>965.894000</v>
+        <v>965.89400000000001</v>
       </c>
       <c r="AH18" s="1">
-        <v>-74.777600</v>
+        <v>-74.777600000000007</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>62365.972925</v>
+        <v>62365.972925000002</v>
       </c>
       <c r="AK18" s="1">
         <v>17.323881</v>
       </c>
       <c r="AL18" s="1">
-        <v>973.418000</v>
+        <v>973.41800000000001</v>
       </c>
       <c r="AM18" s="1">
-        <v>-79.531200</v>
+        <v>-79.531199999999998</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>62377.143823</v>
+        <v>62377.143822999999</v>
       </c>
       <c r="AP18" s="1">
-        <v>17.326984</v>
+        <v>17.326983999999999</v>
       </c>
       <c r="AQ18" s="1">
-        <v>981.603000</v>
+        <v>981.60299999999995</v>
       </c>
       <c r="AR18" s="1">
-        <v>-91.028600</v>
+        <v>-91.028599999999997</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>62388.272099</v>
+        <v>62388.272099000002</v>
       </c>
       <c r="AU18" s="1">
-        <v>17.330076</v>
+        <v>17.330075999999998</v>
       </c>
       <c r="AV18" s="1">
-        <v>991.518000</v>
+        <v>991.51800000000003</v>
       </c>
       <c r="AW18" s="1">
-        <v>-108.681000</v>
+        <v>-108.681</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>62398.954937</v>
+        <v>62398.954937000002</v>
       </c>
       <c r="AZ18" s="1">
         <v>17.333043</v>
       </c>
       <c r="BA18" s="1">
-        <v>999.793000</v>
+        <v>999.79300000000001</v>
       </c>
       <c r="BB18" s="1">
-        <v>-124.283000</v>
+        <v>-124.283</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>62409.957687</v>
+        <v>62409.957687000002</v>
       </c>
       <c r="BE18" s="1">
-        <v>17.336099</v>
+        <v>17.336099000000001</v>
       </c>
       <c r="BF18" s="1">
-        <v>1038.610000</v>
+        <v>1038.6099999999999</v>
       </c>
       <c r="BG18" s="1">
-        <v>-196.192000</v>
+        <v>-196.19200000000001</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>62421.585121</v>
+        <v>62421.585120999996</v>
       </c>
       <c r="BJ18" s="1">
-        <v>17.339329</v>
+        <v>17.339328999999999</v>
       </c>
       <c r="BK18" s="1">
-        <v>1106.000000</v>
+        <v>1106</v>
       </c>
       <c r="BL18" s="1">
-        <v>-312.386000</v>
+        <v>-312.38600000000002</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>62432.436837</v>
+        <v>62432.436837000001</v>
       </c>
       <c r="BO18" s="1">
-        <v>17.342344</v>
+        <v>17.342344000000001</v>
       </c>
       <c r="BP18" s="1">
-        <v>1215.520000</v>
+        <v>1215.52</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-493.994000</v>
+        <v>-493.99400000000003</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>62443.392006</v>
+        <v>62443.392006000002</v>
       </c>
       <c r="BT18" s="1">
-        <v>17.345387</v>
+        <v>17.345386999999999</v>
       </c>
       <c r="BU18" s="1">
-        <v>1338.140000</v>
+        <v>1338.14</v>
       </c>
       <c r="BV18" s="1">
-        <v>-692.074000</v>
+        <v>-692.07399999999996</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>62454.311400</v>
+        <v>62454.311399999999</v>
       </c>
       <c r="BY18" s="1">
-        <v>17.348420</v>
+        <v>17.348420000000001</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1474.130000</v>
+        <v>1474.13</v>
       </c>
       <c r="CA18" s="1">
-        <v>-901.689000</v>
+        <v>-901.68899999999996</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>62466.823015</v>
+        <v>62466.823015000002</v>
       </c>
       <c r="CD18" s="1">
-        <v>17.351895</v>
+        <v>17.351894999999999</v>
       </c>
       <c r="CE18" s="1">
-        <v>1827.250000</v>
+        <v>1827.25</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1398.910000</v>
+        <v>-1398.91</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>62294.094188</v>
+        <v>62294.094188000003</v>
       </c>
       <c r="B19" s="1">
         <v>17.303915</v>
       </c>
       <c r="C19" s="1">
-        <v>900.762000</v>
+        <v>900.76199999999994</v>
       </c>
       <c r="D19" s="1">
-        <v>-186.277000</v>
+        <v>-186.27699999999999</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>62304.241838</v>
+        <v>62304.241838000002</v>
       </c>
       <c r="G19" s="1">
-        <v>17.306734</v>
+        <v>17.306733999999999</v>
       </c>
       <c r="H19" s="1">
-        <v>916.608000</v>
+        <v>916.60799999999995</v>
       </c>
       <c r="I19" s="1">
-        <v>-159.031000</v>
+        <v>-159.03100000000001</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>62314.424242</v>
+        <v>62314.424242000001</v>
       </c>
       <c r="L19" s="1">
         <v>17.309562</v>
       </c>
       <c r="M19" s="1">
-        <v>938.535000</v>
+        <v>938.53499999999997</v>
       </c>
       <c r="N19" s="1">
-        <v>-116.243000</v>
+        <v>-116.24299999999999</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>62325.009330</v>
+        <v>62325.009330000001</v>
       </c>
       <c r="Q19" s="1">
         <v>17.312503</v>
       </c>
       <c r="R19" s="1">
-        <v>945.785000</v>
+        <v>945.78499999999997</v>
       </c>
       <c r="S19" s="1">
-        <v>-101.635000</v>
+        <v>-101.63500000000001</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>62335.147099</v>
+        <v>62335.147099000002</v>
       </c>
       <c r="V19" s="1">
-        <v>17.315319</v>
+        <v>17.315318999999999</v>
       </c>
       <c r="W19" s="1">
-        <v>952.986000</v>
+        <v>952.98599999999999</v>
       </c>
       <c r="X19" s="1">
-        <v>-87.533300</v>
+        <v>-87.533299999999997</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>62345.349304</v>
+        <v>62345.349304000003</v>
       </c>
       <c r="AA19" s="1">
-        <v>17.318153</v>
+        <v>17.318152999999999</v>
       </c>
       <c r="AB19" s="1">
-        <v>960.740000</v>
+        <v>960.74</v>
       </c>
       <c r="AC19" s="1">
-        <v>-76.811100</v>
+        <v>-76.811099999999996</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>62356.122930</v>
+        <v>62356.122929999998</v>
       </c>
       <c r="AF19" s="1">
-        <v>17.321145</v>
+        <v>17.321145000000001</v>
       </c>
       <c r="AG19" s="1">
-        <v>965.891000</v>
+        <v>965.89099999999996</v>
       </c>
       <c r="AH19" s="1">
-        <v>-74.798900</v>
+        <v>-74.798900000000003</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>62366.644507</v>
+        <v>62366.644506999997</v>
       </c>
       <c r="AK19" s="1">
         <v>17.324068</v>
       </c>
       <c r="AL19" s="1">
-        <v>973.381000</v>
+        <v>973.38099999999997</v>
       </c>
       <c r="AM19" s="1">
-        <v>-79.466800</v>
+        <v>-79.466800000000006</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>62377.579807</v>
+        <v>62377.579807000002</v>
       </c>
       <c r="AP19" s="1">
-        <v>17.327106</v>
+        <v>17.327106000000001</v>
       </c>
       <c r="AQ19" s="1">
-        <v>981.629000</v>
+        <v>981.62900000000002</v>
       </c>
       <c r="AR19" s="1">
-        <v>-91.023800</v>
+        <v>-91.023799999999994</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>62388.634142</v>
+        <v>62388.634142000003</v>
       </c>
       <c r="AU19" s="1">
-        <v>17.330176</v>
+        <v>17.330176000000002</v>
       </c>
       <c r="AV19" s="1">
-        <v>991.533000</v>
+        <v>991.53300000000002</v>
       </c>
       <c r="AW19" s="1">
-        <v>-108.678000</v>
+        <v>-108.678</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>62399.333345</v>
+        <v>62399.333344999999</v>
       </c>
       <c r="AZ19" s="1">
-        <v>17.333148</v>
+        <v>17.333148000000001</v>
       </c>
       <c r="BA19" s="1">
-        <v>999.795000</v>
+        <v>999.79499999999996</v>
       </c>
       <c r="BB19" s="1">
-        <v>-124.292000</v>
+        <v>-124.292</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>62410.315794</v>
+        <v>62410.315794000002</v>
       </c>
       <c r="BE19" s="1">
-        <v>17.336199</v>
+        <v>17.336199000000001</v>
       </c>
       <c r="BF19" s="1">
-        <v>1038.610000</v>
+        <v>1038.6099999999999</v>
       </c>
       <c r="BG19" s="1">
-        <v>-196.186000</v>
+        <v>-196.18600000000001</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>62422.011954</v>
+        <v>62422.011954000001</v>
       </c>
       <c r="BJ19" s="1">
-        <v>17.339448</v>
+        <v>17.339448000000001</v>
       </c>
       <c r="BK19" s="1">
-        <v>1106.020000</v>
+        <v>1106.02</v>
       </c>
       <c r="BL19" s="1">
-        <v>-312.380000</v>
+        <v>-312.38</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>62432.874340</v>
+        <v>62432.874340000002</v>
       </c>
       <c r="BO19" s="1">
-        <v>17.342465</v>
+        <v>17.342465000000001</v>
       </c>
       <c r="BP19" s="1">
-        <v>1215.510000</v>
+        <v>1215.51</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-494.005000</v>
+        <v>-494.005</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
         <v>62443.820022</v>
@@ -5060,422 +5476,422 @@
         <v>17.345506</v>
       </c>
       <c r="BU19" s="1">
-        <v>1338.270000</v>
+        <v>1338.27</v>
       </c>
       <c r="BV19" s="1">
-        <v>-692.053000</v>
+        <v>-692.053</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>62454.732514</v>
+        <v>62454.732514000003</v>
       </c>
       <c r="BY19" s="1">
         <v>17.348537</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1474.210000</v>
+        <v>1474.21</v>
       </c>
       <c r="CA19" s="1">
-        <v>-901.685000</v>
+        <v>-901.68499999999995</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>62467.344280</v>
+        <v>62467.344279999998</v>
       </c>
       <c r="CD19" s="1">
-        <v>17.352040</v>
+        <v>17.352039999999999</v>
       </c>
       <c r="CE19" s="1">
-        <v>1828.390000</v>
+        <v>1828.39</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1398.570000</v>
+        <v>-1398.57</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>62294.773736</v>
+        <v>62294.773736000003</v>
       </c>
       <c r="B20" s="1">
-        <v>17.304104</v>
+        <v>17.304103999999999</v>
       </c>
       <c r="C20" s="1">
-        <v>900.756000</v>
+        <v>900.75599999999997</v>
       </c>
       <c r="D20" s="1">
-        <v>-186.352000</v>
+        <v>-186.352</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>62304.585075</v>
+        <v>62304.585075000003</v>
       </c>
       <c r="G20" s="1">
         <v>17.306829</v>
       </c>
       <c r="H20" s="1">
-        <v>916.743000</v>
+        <v>916.74300000000005</v>
       </c>
       <c r="I20" s="1">
-        <v>-158.301000</v>
+        <v>-158.30099999999999</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>62314.769922</v>
+        <v>62314.769921999999</v>
       </c>
       <c r="L20" s="1">
-        <v>17.309658</v>
+        <v>17.309657999999999</v>
       </c>
       <c r="M20" s="1">
-        <v>938.523000</v>
+        <v>938.52300000000002</v>
       </c>
       <c r="N20" s="1">
-        <v>-116.338000</v>
+        <v>-116.33799999999999</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>62325.358050</v>
+        <v>62325.358050000003</v>
       </c>
       <c r="Q20" s="1">
-        <v>17.312599</v>
+        <v>17.312598999999999</v>
       </c>
       <c r="R20" s="1">
-        <v>945.774000</v>
+        <v>945.774</v>
       </c>
       <c r="S20" s="1">
-        <v>-101.610000</v>
+        <v>-101.61</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>62335.805293</v>
+        <v>62335.805292999998</v>
       </c>
       <c r="V20" s="1">
-        <v>17.315501</v>
+        <v>17.315501000000001</v>
       </c>
       <c r="W20" s="1">
-        <v>952.873000</v>
+        <v>952.87300000000005</v>
       </c>
       <c r="X20" s="1">
-        <v>-87.571400</v>
+        <v>-87.571399999999997</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>62346.003991</v>
+        <v>62346.003990999998</v>
       </c>
       <c r="AA20" s="1">
         <v>17.318334</v>
       </c>
       <c r="AB20" s="1">
-        <v>960.774000</v>
+        <v>960.774</v>
       </c>
       <c r="AC20" s="1">
-        <v>-76.871900</v>
+        <v>-76.871899999999997</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>62356.492889</v>
+        <v>62356.492889000001</v>
       </c>
       <c r="AF20" s="1">
-        <v>17.321248</v>
+        <v>17.321248000000001</v>
       </c>
       <c r="AG20" s="1">
-        <v>965.857000</v>
+        <v>965.85699999999997</v>
       </c>
       <c r="AH20" s="1">
-        <v>-74.729200</v>
+        <v>-74.729200000000006</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>62367.082986</v>
+        <v>62367.082986000001</v>
       </c>
       <c r="AK20" s="1">
-        <v>17.324190</v>
+        <v>17.324190000000002</v>
       </c>
       <c r="AL20" s="1">
-        <v>973.367000</v>
+        <v>973.36699999999996</v>
       </c>
       <c r="AM20" s="1">
-        <v>-79.497100</v>
+        <v>-79.497100000000003</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>62377.942878</v>
+        <v>62377.942878000002</v>
       </c>
       <c r="AP20" s="1">
         <v>17.327206</v>
       </c>
       <c r="AQ20" s="1">
-        <v>981.598000</v>
+        <v>981.59799999999996</v>
       </c>
       <c r="AR20" s="1">
-        <v>-91.025300</v>
+        <v>-91.025300000000001</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>62388.998702</v>
+        <v>62388.998701999997</v>
       </c>
       <c r="AU20" s="1">
-        <v>17.330277</v>
+        <v>17.330276999999999</v>
       </c>
       <c r="AV20" s="1">
-        <v>991.513000</v>
+        <v>991.51300000000003</v>
       </c>
       <c r="AW20" s="1">
-        <v>-108.675000</v>
+        <v>-108.675</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>62399.709350</v>
+        <v>62399.709349999997</v>
       </c>
       <c r="AZ20" s="1">
-        <v>17.333253</v>
+        <v>17.333252999999999</v>
       </c>
       <c r="BA20" s="1">
-        <v>999.788000</v>
+        <v>999.78800000000001</v>
       </c>
       <c r="BB20" s="1">
-        <v>-124.283000</v>
+        <v>-124.283</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>62410.739841</v>
+        <v>62410.739841000002</v>
       </c>
       <c r="BE20" s="1">
-        <v>17.336317</v>
+        <v>17.336317000000001</v>
       </c>
       <c r="BF20" s="1">
-        <v>1038.620000</v>
+        <v>1038.6199999999999</v>
       </c>
       <c r="BG20" s="1">
-        <v>-196.205000</v>
+        <v>-196.20500000000001</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>62422.336802</v>
+        <v>62422.336801999998</v>
       </c>
       <c r="BJ20" s="1">
-        <v>17.339538</v>
+        <v>17.339538000000001</v>
       </c>
       <c r="BK20" s="1">
-        <v>1105.980000</v>
+        <v>1105.98</v>
       </c>
       <c r="BL20" s="1">
-        <v>-312.369000</v>
+        <v>-312.36900000000003</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>62433.265653</v>
+        <v>62433.265653000002</v>
       </c>
       <c r="BO20" s="1">
-        <v>17.342574</v>
+        <v>17.342573999999999</v>
       </c>
       <c r="BP20" s="1">
-        <v>1215.510000</v>
+        <v>1215.51</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-493.964000</v>
+        <v>-493.964</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>62444.232694</v>
+        <v>62444.232693999998</v>
       </c>
       <c r="BT20" s="1">
-        <v>17.345620</v>
+        <v>17.34562</v>
       </c>
       <c r="BU20" s="1">
-        <v>1338.270000</v>
+        <v>1338.27</v>
       </c>
       <c r="BV20" s="1">
-        <v>-691.905000</v>
+        <v>-691.90499999999997</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>62455.155591</v>
+        <v>62455.155591000002</v>
       </c>
       <c r="BY20" s="1">
         <v>17.348654</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1474.120000</v>
+        <v>1474.12</v>
       </c>
       <c r="CA20" s="1">
-        <v>-901.752000</v>
+        <v>-901.75199999999995</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>62467.861143</v>
+        <v>62467.861143000002</v>
       </c>
       <c r="CD20" s="1">
-        <v>17.352184</v>
+        <v>17.352184000000001</v>
       </c>
       <c r="CE20" s="1">
-        <v>1827.960000</v>
+        <v>1827.96</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1398.870000</v>
+        <v>-1398.87</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>62295.117930</v>
+        <v>62295.11793</v>
       </c>
       <c r="B21" s="1">
-        <v>17.304199</v>
+        <v>17.304199000000001</v>
       </c>
       <c r="C21" s="1">
-        <v>900.992000</v>
+        <v>900.99199999999996</v>
       </c>
       <c r="D21" s="1">
-        <v>-186.492000</v>
+        <v>-186.49199999999999</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>62304.931807</v>
+        <v>62304.931807000001</v>
       </c>
       <c r="G21" s="1">
-        <v>17.306926</v>
+        <v>17.306926000000001</v>
       </c>
       <c r="H21" s="1">
-        <v>916.752000</v>
+        <v>916.75199999999995</v>
       </c>
       <c r="I21" s="1">
-        <v>-158.900000</v>
+        <v>-158.9</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>62315.116656</v>
+        <v>62315.116655999998</v>
       </c>
       <c r="L21" s="1">
-        <v>17.309755</v>
+        <v>17.309754999999999</v>
       </c>
       <c r="M21" s="1">
-        <v>938.524000</v>
+        <v>938.524</v>
       </c>
       <c r="N21" s="1">
-        <v>-116.398000</v>
+        <v>-116.398</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>62326.014753</v>
+        <v>62326.014753000003</v>
       </c>
       <c r="Q21" s="1">
-        <v>17.312782</v>
+        <v>17.312781999999999</v>
       </c>
       <c r="R21" s="1">
-        <v>945.768000</v>
+        <v>945.76800000000003</v>
       </c>
       <c r="S21" s="1">
-        <v>-101.593000</v>
+        <v>-101.593</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
         <v>62336.179267</v>
       </c>
       <c r="V21" s="1">
-        <v>17.315605</v>
+        <v>17.315605000000001</v>
       </c>
       <c r="W21" s="1">
-        <v>952.996000</v>
+        <v>952.99599999999998</v>
       </c>
       <c r="X21" s="1">
-        <v>-87.631700</v>
+        <v>-87.631699999999995</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>62346.397857</v>
+        <v>62346.397857000004</v>
       </c>
       <c r="AA21" s="1">
         <v>17.318444</v>
       </c>
       <c r="AB21" s="1">
-        <v>960.795000</v>
+        <v>960.79499999999996</v>
       </c>
       <c r="AC21" s="1">
-        <v>-76.756400</v>
+        <v>-76.756399999999999</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>62356.835666</v>
+        <v>62356.835665999999</v>
       </c>
       <c r="AF21" s="1">
-        <v>17.321343</v>
+        <v>17.321342999999999</v>
       </c>
       <c r="AG21" s="1">
-        <v>966.014000</v>
+        <v>966.01400000000001</v>
       </c>
       <c r="AH21" s="1">
-        <v>-74.664000</v>
+        <v>-74.664000000000001</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>62367.379615</v>
+        <v>62367.379614999998</v>
       </c>
       <c r="AK21" s="1">
-        <v>17.324272</v>
+        <v>17.324272000000001</v>
       </c>
       <c r="AL21" s="1">
-        <v>973.346000</v>
+        <v>973.346</v>
       </c>
       <c r="AM21" s="1">
-        <v>-79.448700</v>
+        <v>-79.448700000000002</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
         <v>62378.301023</v>
@@ -5484,300 +5900,300 @@
         <v>17.327306</v>
       </c>
       <c r="AQ21" s="1">
-        <v>981.612000</v>
+        <v>981.61199999999997</v>
       </c>
       <c r="AR21" s="1">
-        <v>-91.004900</v>
+        <v>-91.004900000000006</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>62389.424269</v>
+        <v>62389.424269000003</v>
       </c>
       <c r="AU21" s="1">
         <v>17.330396</v>
       </c>
       <c r="AV21" s="1">
-        <v>991.514000</v>
+        <v>991.51400000000001</v>
       </c>
       <c r="AW21" s="1">
-        <v>-108.687000</v>
+        <v>-108.687</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>62400.194897</v>
+        <v>62400.194897000001</v>
       </c>
       <c r="AZ21" s="1">
-        <v>17.333387</v>
+        <v>17.333386999999998</v>
       </c>
       <c r="BA21" s="1">
-        <v>999.804000</v>
+        <v>999.80399999999997</v>
       </c>
       <c r="BB21" s="1">
-        <v>-124.299000</v>
+        <v>-124.29900000000001</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>62411.037938</v>
+        <v>62411.037938000001</v>
       </c>
       <c r="BE21" s="1">
         <v>17.336399</v>
       </c>
       <c r="BF21" s="1">
-        <v>1038.590000</v>
+        <v>1038.5899999999999</v>
       </c>
       <c r="BG21" s="1">
-        <v>-196.171000</v>
+        <v>-196.17099999999999</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>62422.723186</v>
+        <v>62422.723186000003</v>
       </c>
       <c r="BJ21" s="1">
-        <v>17.339645</v>
+        <v>17.339645000000001</v>
       </c>
       <c r="BK21" s="1">
-        <v>1105.980000</v>
+        <v>1105.98</v>
       </c>
       <c r="BL21" s="1">
-        <v>-312.394000</v>
+        <v>-312.39400000000001</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>62433.675382</v>
+        <v>62433.675382000001</v>
       </c>
       <c r="BO21" s="1">
-        <v>17.342688</v>
+        <v>17.342687999999999</v>
       </c>
       <c r="BP21" s="1">
-        <v>1215.540000</v>
+        <v>1215.54</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-493.995000</v>
+        <v>-493.995</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
         <v>62444.664244</v>
       </c>
       <c r="BT21" s="1">
-        <v>17.345740</v>
+        <v>17.345739999999999</v>
       </c>
       <c r="BU21" s="1">
-        <v>1338.350000</v>
+        <v>1338.35</v>
       </c>
       <c r="BV21" s="1">
-        <v>-691.887000</v>
+        <v>-691.88699999999994</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>62455.602520</v>
+        <v>62455.60252</v>
       </c>
       <c r="BY21" s="1">
-        <v>17.348778</v>
+        <v>17.348777999999999</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1474.280000</v>
+        <v>1474.28</v>
       </c>
       <c r="CA21" s="1">
-        <v>-901.715000</v>
+        <v>-901.71500000000003</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
         <v>62468.411173</v>
       </c>
       <c r="CD21" s="1">
-        <v>17.352336</v>
+        <v>17.352336000000001</v>
       </c>
       <c r="CE21" s="1">
-        <v>1827.350000</v>
+        <v>1827.35</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1399.220000</v>
+        <v>-1399.22</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>62295.458718</v>
+        <v>62295.458718000002</v>
       </c>
       <c r="B22" s="1">
-        <v>17.304294</v>
+        <v>17.304293999999999</v>
       </c>
       <c r="C22" s="1">
-        <v>900.828000</v>
+        <v>900.82799999999997</v>
       </c>
       <c r="D22" s="1">
-        <v>-186.321000</v>
+        <v>-186.321</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>62305.589008</v>
+        <v>62305.589008000003</v>
       </c>
       <c r="G22" s="1">
-        <v>17.307108</v>
+        <v>17.307107999999999</v>
       </c>
       <c r="H22" s="1">
-        <v>916.182000</v>
+        <v>916.18200000000002</v>
       </c>
       <c r="I22" s="1">
-        <v>-158.696000</v>
+        <v>-158.696</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>62315.771872</v>
+        <v>62315.771871999998</v>
       </c>
       <c r="L22" s="1">
-        <v>17.309937</v>
+        <v>17.309937000000001</v>
       </c>
       <c r="M22" s="1">
-        <v>938.651000</v>
+        <v>938.65099999999995</v>
       </c>
       <c r="N22" s="1">
-        <v>-116.468000</v>
+        <v>-116.468</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>62326.405073</v>
+        <v>62326.405073000002</v>
       </c>
       <c r="Q22" s="1">
-        <v>17.312890</v>
+        <v>17.312889999999999</v>
       </c>
       <c r="R22" s="1">
-        <v>945.778000</v>
+        <v>945.77800000000002</v>
       </c>
       <c r="S22" s="1">
-        <v>-101.605000</v>
+        <v>-101.605</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>62336.521011</v>
+        <v>62336.521010999997</v>
       </c>
       <c r="V22" s="1">
-        <v>17.315700</v>
+        <v>17.3157</v>
       </c>
       <c r="W22" s="1">
-        <v>953.035000</v>
+        <v>953.03499999999997</v>
       </c>
       <c r="X22" s="1">
-        <v>-87.646100</v>
+        <v>-87.646100000000004</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>62346.742534</v>
+        <v>62346.742533999997</v>
       </c>
       <c r="AA22" s="1">
-        <v>17.318540</v>
+        <v>17.318539999999999</v>
       </c>
       <c r="AB22" s="1">
-        <v>960.861000</v>
+        <v>960.86099999999999</v>
       </c>
       <c r="AC22" s="1">
-        <v>-76.782800</v>
+        <v>-76.782799999999995</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>62357.178857</v>
+        <v>62357.178856999999</v>
       </c>
       <c r="AF22" s="1">
-        <v>17.321439</v>
+        <v>17.321439000000002</v>
       </c>
       <c r="AG22" s="1">
-        <v>965.906000</v>
+        <v>965.90599999999995</v>
       </c>
       <c r="AH22" s="1">
-        <v>-74.859800</v>
+        <v>-74.859800000000007</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>62367.808618</v>
+        <v>62367.808618000003</v>
       </c>
       <c r="AK22" s="1">
-        <v>17.324391</v>
+        <v>17.324390999999999</v>
       </c>
       <c r="AL22" s="1">
-        <v>973.365000</v>
+        <v>973.36500000000001</v>
       </c>
       <c r="AM22" s="1">
-        <v>-79.466500</v>
+        <v>-79.466499999999996</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
         <v>62378.725069</v>
       </c>
       <c r="AP22" s="1">
-        <v>17.327424</v>
+        <v>17.327424000000001</v>
       </c>
       <c r="AQ22" s="1">
-        <v>981.594000</v>
+        <v>981.59400000000005</v>
       </c>
       <c r="AR22" s="1">
-        <v>-91.009300</v>
+        <v>-91.009299999999996</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>62389.726830</v>
+        <v>62389.72683</v>
       </c>
       <c r="AU22" s="1">
-        <v>17.330480</v>
+        <v>17.330480000000001</v>
       </c>
       <c r="AV22" s="1">
-        <v>991.504000</v>
+        <v>991.50400000000002</v>
       </c>
       <c r="AW22" s="1">
-        <v>-108.670000</v>
+        <v>-108.67</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>62400.428512</v>
+        <v>62400.428511999999</v>
       </c>
       <c r="AZ22" s="1">
-        <v>17.333452</v>
+        <v>17.333452000000001</v>
       </c>
       <c r="BA22" s="1">
-        <v>999.808000</v>
+        <v>999.80799999999999</v>
       </c>
       <c r="BB22" s="1">
-        <v>-124.295000</v>
+        <v>-124.295</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
         <v>62411.397568</v>
@@ -5786,270 +6202,270 @@
         <v>17.336499</v>
       </c>
       <c r="BF22" s="1">
-        <v>1038.610000</v>
+        <v>1038.6099999999999</v>
       </c>
       <c r="BG22" s="1">
-        <v>-196.181000</v>
+        <v>-196.18100000000001</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>62423.112545</v>
+        <v>62423.112545000004</v>
       </c>
       <c r="BJ22" s="1">
-        <v>17.339753</v>
+        <v>17.339753000000002</v>
       </c>
       <c r="BK22" s="1">
-        <v>1106.030000</v>
+        <v>1106.03</v>
       </c>
       <c r="BL22" s="1">
-        <v>-312.398000</v>
+        <v>-312.39800000000002</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>62434.489778</v>
+        <v>62434.489778000003</v>
       </c>
       <c r="BO22" s="1">
         <v>17.342914</v>
       </c>
       <c r="BP22" s="1">
-        <v>1215.520000</v>
+        <v>1215.52</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-493.998000</v>
+        <v>-493.99799999999999</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>62445.091764</v>
+        <v>62445.091763999997</v>
       </c>
       <c r="BT22" s="1">
-        <v>17.345859</v>
+        <v>17.345859000000001</v>
       </c>
       <c r="BU22" s="1">
-        <v>1338.300000</v>
+        <v>1338.3</v>
       </c>
       <c r="BV22" s="1">
-        <v>-691.775000</v>
+        <v>-691.77499999999998</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>62456.034997</v>
+        <v>62456.034997000002</v>
       </c>
       <c r="BY22" s="1">
-        <v>17.348899</v>
+        <v>17.348898999999999</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1474.180000</v>
+        <v>1474.18</v>
       </c>
       <c r="CA22" s="1">
-        <v>-901.626000</v>
+        <v>-901.62599999999998</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>62468.943876</v>
+        <v>62468.943875999998</v>
       </c>
       <c r="CD22" s="1">
         <v>17.352484</v>
       </c>
       <c r="CE22" s="1">
-        <v>1828.640000</v>
+        <v>1828.64</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1398.360000</v>
+        <v>-1398.36</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>62296.111914</v>
+        <v>62296.111914000001</v>
       </c>
       <c r="B23" s="1">
-        <v>17.304476</v>
+        <v>17.304476000000001</v>
       </c>
       <c r="C23" s="1">
-        <v>900.825000</v>
+        <v>900.82500000000005</v>
       </c>
       <c r="D23" s="1">
-        <v>-186.463000</v>
+        <v>-186.46299999999999</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>62305.967916</v>
+        <v>62305.967916000001</v>
       </c>
       <c r="G23" s="1">
-        <v>17.307213</v>
+        <v>17.307213000000001</v>
       </c>
       <c r="H23" s="1">
-        <v>916.742000</v>
+        <v>916.74199999999996</v>
       </c>
       <c r="I23" s="1">
-        <v>-159.394000</v>
+        <v>-159.39400000000001</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>62316.154782</v>
+        <v>62316.154781999998</v>
       </c>
       <c r="L23" s="1">
         <v>17.310043</v>
       </c>
       <c r="M23" s="1">
-        <v>938.612000</v>
+        <v>938.61199999999997</v>
       </c>
       <c r="N23" s="1">
-        <v>-116.470000</v>
+        <v>-116.47</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>62326.752768</v>
+        <v>62326.752767999998</v>
       </c>
       <c r="Q23" s="1">
         <v>17.312987</v>
       </c>
       <c r="R23" s="1">
-        <v>945.803000</v>
+        <v>945.803</v>
       </c>
       <c r="S23" s="1">
-        <v>-101.613000</v>
+        <v>-101.613</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
         <v>62336.864211</v>
       </c>
       <c r="V23" s="1">
-        <v>17.315796</v>
+        <v>17.315795999999999</v>
       </c>
       <c r="W23" s="1">
-        <v>952.903000</v>
+        <v>952.90300000000002</v>
       </c>
       <c r="X23" s="1">
-        <v>-87.628600</v>
+        <v>-87.628600000000006</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>62347.094199</v>
+        <v>62347.094198999999</v>
       </c>
       <c r="AA23" s="1">
-        <v>17.318637</v>
+        <v>17.318636999999999</v>
       </c>
       <c r="AB23" s="1">
-        <v>960.763000</v>
+        <v>960.76300000000003</v>
       </c>
       <c r="AC23" s="1">
-        <v>-76.745200</v>
+        <v>-76.745199999999997</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>62357.611901</v>
+        <v>62357.611900999997</v>
       </c>
       <c r="AF23" s="1">
-        <v>17.321559</v>
+        <v>17.321559000000001</v>
       </c>
       <c r="AG23" s="1">
-        <v>965.909000</v>
+        <v>965.90899999999999</v>
       </c>
       <c r="AH23" s="1">
-        <v>-74.773000</v>
+        <v>-74.772999999999996</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>62368.080922</v>
+        <v>62368.080922000001</v>
       </c>
       <c r="AK23" s="1">
-        <v>17.324467</v>
+        <v>17.324466999999999</v>
       </c>
       <c r="AL23" s="1">
-        <v>973.365000</v>
+        <v>973.36500000000001</v>
       </c>
       <c r="AM23" s="1">
-        <v>-79.472700</v>
+        <v>-79.472700000000003</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>62379.020717</v>
+        <v>62379.020716999999</v>
       </c>
       <c r="AP23" s="1">
         <v>17.327506</v>
       </c>
       <c r="AQ23" s="1">
-        <v>981.611000</v>
+        <v>981.61099999999999</v>
       </c>
       <c r="AR23" s="1">
-        <v>-91.027900</v>
+        <v>-91.027900000000002</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>62390.094366</v>
+        <v>62390.094365999998</v>
       </c>
       <c r="AU23" s="1">
         <v>17.330582</v>
       </c>
       <c r="AV23" s="1">
-        <v>991.509000</v>
+        <v>991.50900000000001</v>
       </c>
       <c r="AW23" s="1">
-        <v>-108.680000</v>
+        <v>-108.68</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>62400.787647</v>
+        <v>62400.787646999997</v>
       </c>
       <c r="AZ23" s="1">
-        <v>17.333552</v>
+        <v>17.333552000000001</v>
       </c>
       <c r="BA23" s="1">
-        <v>999.800000</v>
+        <v>999.8</v>
       </c>
       <c r="BB23" s="1">
-        <v>-124.289000</v>
+        <v>-124.289</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>62411.758656</v>
+        <v>62411.758655999998</v>
       </c>
       <c r="BE23" s="1">
-        <v>17.336600</v>
+        <v>17.336600000000001</v>
       </c>
       <c r="BF23" s="1">
-        <v>1038.610000</v>
+        <v>1038.6099999999999</v>
       </c>
       <c r="BG23" s="1">
-        <v>-196.174000</v>
+        <v>-196.17400000000001</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
         <v>62423.861504</v>
@@ -6058,150 +6474,150 @@
         <v>17.339962</v>
       </c>
       <c r="BK23" s="1">
-        <v>1105.980000</v>
+        <v>1105.98</v>
       </c>
       <c r="BL23" s="1">
-        <v>-312.378000</v>
+        <v>-312.37799999999999</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>62434.906417</v>
+        <v>62434.906416999998</v>
       </c>
       <c r="BO23" s="1">
-        <v>17.343030</v>
+        <v>17.343029999999999</v>
       </c>
       <c r="BP23" s="1">
-        <v>1215.500000</v>
+        <v>1215.5</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-493.994000</v>
+        <v>-493.99400000000003</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>62445.504436</v>
+        <v>62445.504436000003</v>
       </c>
       <c r="BT23" s="1">
-        <v>17.345973</v>
+        <v>17.345973000000001</v>
       </c>
       <c r="BU23" s="1">
-        <v>1338.220000</v>
+        <v>1338.22</v>
       </c>
       <c r="BV23" s="1">
-        <v>-691.619000</v>
+        <v>-691.61900000000003</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>62456.457589</v>
+        <v>62456.457588999998</v>
       </c>
       <c r="BY23" s="1">
-        <v>17.349016</v>
+        <v>17.349015999999999</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1474.150000</v>
+        <v>1474.15</v>
       </c>
       <c r="CA23" s="1">
-        <v>-901.635000</v>
+        <v>-901.63499999999999</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>62469.764755</v>
+        <v>62469.764754999997</v>
       </c>
       <c r="CD23" s="1">
         <v>17.352712</v>
       </c>
       <c r="CE23" s="1">
-        <v>1827.470000</v>
+        <v>1827.47</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1397.360000</v>
+        <v>-1397.36</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>62296.483448</v>
+        <v>62296.483447999999</v>
       </c>
       <c r="B24" s="1">
         <v>17.304579</v>
       </c>
       <c r="C24" s="1">
-        <v>900.849000</v>
+        <v>900.84900000000005</v>
       </c>
       <c r="D24" s="1">
-        <v>-186.392000</v>
+        <v>-186.392</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>62306.313164</v>
+        <v>62306.313163999999</v>
       </c>
       <c r="G24" s="1">
         <v>17.307309</v>
       </c>
       <c r="H24" s="1">
-        <v>915.994000</v>
+        <v>915.99400000000003</v>
       </c>
       <c r="I24" s="1">
-        <v>-159.584000</v>
+        <v>-159.584</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>62316.500990</v>
+        <v>62316.50099</v>
       </c>
       <c r="L24" s="1">
-        <v>17.310139</v>
+        <v>17.310138999999999</v>
       </c>
       <c r="M24" s="1">
-        <v>938.376000</v>
+        <v>938.37599999999998</v>
       </c>
       <c r="N24" s="1">
-        <v>-116.461000</v>
+        <v>-116.461</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>62327.100464</v>
+        <v>62327.100464000003</v>
       </c>
       <c r="Q24" s="1">
-        <v>17.313083</v>
+        <v>17.313082999999999</v>
       </c>
       <c r="R24" s="1">
-        <v>945.776000</v>
+        <v>945.77599999999995</v>
       </c>
       <c r="S24" s="1">
-        <v>-101.573000</v>
+        <v>-101.57299999999999</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>62337.280882</v>
+        <v>62337.280881999999</v>
       </c>
       <c r="V24" s="1">
         <v>17.315911</v>
       </c>
       <c r="W24" s="1">
-        <v>952.950000</v>
+        <v>952.95</v>
       </c>
       <c r="X24" s="1">
-        <v>-87.609900</v>
+        <v>-87.609899999999996</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
         <v>62347.508854</v>
@@ -6210,390 +6626,390 @@
         <v>17.318752</v>
       </c>
       <c r="AB24" s="1">
-        <v>960.891000</v>
+        <v>960.89099999999996</v>
       </c>
       <c r="AC24" s="1">
-        <v>-76.778700</v>
+        <v>-76.778700000000001</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>62357.890176</v>
+        <v>62357.890176000001</v>
       </c>
       <c r="AF24" s="1">
-        <v>17.321636</v>
+        <v>17.321636000000002</v>
       </c>
       <c r="AG24" s="1">
-        <v>965.943000</v>
+        <v>965.94299999999998</v>
       </c>
       <c r="AH24" s="1">
-        <v>-74.804400</v>
+        <v>-74.804400000000001</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>62368.429147</v>
+        <v>62368.429147000003</v>
       </c>
       <c r="AK24" s="1">
-        <v>17.324564</v>
+        <v>17.324563999999999</v>
       </c>
       <c r="AL24" s="1">
-        <v>973.350000</v>
+        <v>973.35</v>
       </c>
       <c r="AM24" s="1">
-        <v>-79.473500</v>
+        <v>-79.473500000000001</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
         <v>62379.381771</v>
       </c>
       <c r="AP24" s="1">
-        <v>17.327606</v>
+        <v>17.327605999999999</v>
       </c>
       <c r="AQ24" s="1">
-        <v>981.606000</v>
+        <v>981.60599999999999</v>
       </c>
       <c r="AR24" s="1">
-        <v>-91.036200</v>
+        <v>-91.036199999999994</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>62390.457933</v>
+        <v>62390.457932999998</v>
       </c>
       <c r="AU24" s="1">
-        <v>17.330683</v>
+        <v>17.330683000000001</v>
       </c>
       <c r="AV24" s="1">
-        <v>991.503000</v>
+        <v>991.50300000000004</v>
       </c>
       <c r="AW24" s="1">
-        <v>-108.684000</v>
+        <v>-108.684</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>62401.507345</v>
+        <v>62401.507344999998</v>
       </c>
       <c r="AZ24" s="1">
         <v>17.333752</v>
       </c>
       <c r="BA24" s="1">
-        <v>999.805000</v>
+        <v>999.80499999999995</v>
       </c>
       <c r="BB24" s="1">
-        <v>-124.289000</v>
+        <v>-124.289</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>62412.481791</v>
+        <v>62412.481790999998</v>
       </c>
       <c r="BE24" s="1">
-        <v>17.336800</v>
+        <v>17.3368</v>
       </c>
       <c r="BF24" s="1">
-        <v>1038.610000</v>
+        <v>1038.6099999999999</v>
       </c>
       <c r="BG24" s="1">
-        <v>-196.199000</v>
+        <v>-196.19900000000001</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>62424.264288</v>
+        <v>62424.264287999998</v>
       </c>
       <c r="BJ24" s="1">
         <v>17.340073</v>
       </c>
       <c r="BK24" s="1">
-        <v>1105.970000</v>
+        <v>1105.97</v>
       </c>
       <c r="BL24" s="1">
-        <v>-312.400000</v>
+        <v>-312.39999999999998</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>62435.304209</v>
+        <v>62435.304209000002</v>
       </c>
       <c r="BO24" s="1">
-        <v>17.343140</v>
+        <v>17.343139999999998</v>
       </c>
       <c r="BP24" s="1">
-        <v>1215.510000</v>
+        <v>1215.51</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-494.022000</v>
+        <v>-494.02199999999999</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>62445.933476</v>
+        <v>62445.933475999998</v>
       </c>
       <c r="BT24" s="1">
         <v>17.346093</v>
       </c>
       <c r="BU24" s="1">
-        <v>1338.180000</v>
+        <v>1338.18</v>
       </c>
       <c r="BV24" s="1">
-        <v>-691.572000</v>
+        <v>-691.572</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>62457.184756</v>
+        <v>62457.184756000002</v>
       </c>
       <c r="BY24" s="1">
         <v>17.349218</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1474.180000</v>
+        <v>1474.18</v>
       </c>
       <c r="CA24" s="1">
-        <v>-901.672000</v>
+        <v>-901.67200000000003</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>62469.975569</v>
+        <v>62469.975569000002</v>
       </c>
       <c r="CD24" s="1">
-        <v>17.352771</v>
+        <v>17.352771000000001</v>
       </c>
       <c r="CE24" s="1">
-        <v>1826.760000</v>
+        <v>1826.76</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1398.750000</v>
+        <v>-1398.75</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>62296.829664</v>
+        <v>62296.829663999997</v>
       </c>
       <c r="B25" s="1">
         <v>17.304675</v>
       </c>
       <c r="C25" s="1">
-        <v>900.838000</v>
+        <v>900.83799999999997</v>
       </c>
       <c r="D25" s="1">
-        <v>-186.320000</v>
+        <v>-186.32</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>62306.654378</v>
+        <v>62306.654377999999</v>
       </c>
       <c r="G25" s="1">
-        <v>17.307404</v>
+        <v>17.307403999999998</v>
       </c>
       <c r="H25" s="1">
-        <v>916.143000</v>
+        <v>916.14300000000003</v>
       </c>
       <c r="I25" s="1">
-        <v>-159.089000</v>
+        <v>-159.089</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>62316.848655</v>
+        <v>62316.848655000002</v>
       </c>
       <c r="L25" s="1">
         <v>17.310236</v>
       </c>
       <c r="M25" s="1">
-        <v>938.525000</v>
+        <v>938.52499999999998</v>
       </c>
       <c r="N25" s="1">
-        <v>-116.327000</v>
+        <v>-116.327</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>62327.530001</v>
+        <v>62327.530000999999</v>
       </c>
       <c r="Q25" s="1">
-        <v>17.313203</v>
+        <v>17.313203000000001</v>
       </c>
       <c r="R25" s="1">
-        <v>945.704000</v>
+        <v>945.70399999999995</v>
       </c>
       <c r="S25" s="1">
-        <v>-101.639000</v>
+        <v>-101.639</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>62337.555147</v>
+        <v>62337.555146999999</v>
       </c>
       <c r="V25" s="1">
-        <v>17.315988</v>
+        <v>17.315988000000001</v>
       </c>
       <c r="W25" s="1">
-        <v>953.001000</v>
+        <v>953.00099999999998</v>
       </c>
       <c r="X25" s="1">
-        <v>-87.621300</v>
+        <v>-87.621300000000005</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>62347.800006</v>
+        <v>62347.800005999998</v>
       </c>
       <c r="AA25" s="1">
-        <v>17.318833</v>
+        <v>17.318833000000001</v>
       </c>
       <c r="AB25" s="1">
-        <v>960.788000</v>
+        <v>960.78800000000001</v>
       </c>
       <c r="AC25" s="1">
-        <v>-76.820600</v>
+        <v>-76.820599999999999</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>62358.234870</v>
+        <v>62358.23487</v>
       </c>
       <c r="AF25" s="1">
-        <v>17.321732</v>
+        <v>17.321732000000001</v>
       </c>
       <c r="AG25" s="1">
-        <v>965.891000</v>
+        <v>965.89099999999996</v>
       </c>
       <c r="AH25" s="1">
-        <v>-74.754900</v>
+        <v>-74.754900000000006</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
         <v>62368.781272</v>
       </c>
       <c r="AK25" s="1">
-        <v>17.324661</v>
+        <v>17.324660999999999</v>
       </c>
       <c r="AL25" s="1">
-        <v>973.376000</v>
+        <v>973.37599999999998</v>
       </c>
       <c r="AM25" s="1">
-        <v>-79.439200</v>
+        <v>-79.4392</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>62379.742894</v>
+        <v>62379.742894000003</v>
       </c>
       <c r="AP25" s="1">
-        <v>17.327706</v>
+        <v>17.327705999999999</v>
       </c>
       <c r="AQ25" s="1">
-        <v>981.594000</v>
+        <v>981.59400000000005</v>
       </c>
       <c r="AR25" s="1">
-        <v>-91.029200</v>
+        <v>-91.029200000000003</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>62391.195510</v>
+        <v>62391.195509999998</v>
       </c>
       <c r="AU25" s="1">
-        <v>17.330888</v>
+        <v>17.330888000000002</v>
       </c>
       <c r="AV25" s="1">
-        <v>991.512000</v>
+        <v>991.51199999999994</v>
       </c>
       <c r="AW25" s="1">
-        <v>-108.689000</v>
+        <v>-108.68899999999999</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>62401.868433</v>
+        <v>62401.868433000003</v>
       </c>
       <c r="AZ25" s="1">
         <v>17.333852</v>
       </c>
       <c r="BA25" s="1">
-        <v>999.800000</v>
+        <v>999.8</v>
       </c>
       <c r="BB25" s="1">
-        <v>-124.283000</v>
+        <v>-124.283</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
         <v>62412.839904</v>
       </c>
       <c r="BE25" s="1">
-        <v>17.336900</v>
+        <v>17.3369</v>
       </c>
       <c r="BF25" s="1">
-        <v>1038.620000</v>
+        <v>1038.6199999999999</v>
       </c>
       <c r="BG25" s="1">
-        <v>-196.190000</v>
+        <v>-196.19</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>62424.640756</v>
+        <v>62424.640756000001</v>
       </c>
       <c r="BJ25" s="1">
-        <v>17.340178</v>
+        <v>17.340178000000002</v>
       </c>
       <c r="BK25" s="1">
-        <v>1106.020000</v>
+        <v>1106.02</v>
       </c>
       <c r="BL25" s="1">
-        <v>-312.368000</v>
+        <v>-312.36799999999999</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>62436.039776</v>
+        <v>62436.039775999998</v>
       </c>
       <c r="BO25" s="1">
-        <v>17.343344</v>
+        <v>17.343343999999998</v>
       </c>
       <c r="BP25" s="1">
-        <v>1215.540000</v>
+        <v>1215.54</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-494.006000</v>
+        <v>-494.00599999999997</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
         <v>62446.684448</v>
@@ -6602,46 +7018,46 @@
         <v>17.346301</v>
       </c>
       <c r="BU25" s="1">
-        <v>1338.120000</v>
+        <v>1338.12</v>
       </c>
       <c r="BV25" s="1">
-        <v>-691.515000</v>
+        <v>-691.51499999999999</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>62457.304790</v>
+        <v>62457.304790000002</v>
       </c>
       <c r="BY25" s="1">
-        <v>17.349251</v>
+        <v>17.349250999999999</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1474.100000</v>
+        <v>1474.1</v>
       </c>
       <c r="CA25" s="1">
-        <v>-901.749000</v>
+        <v>-901.74900000000002</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>62470.496850</v>
+        <v>62470.496850000003</v>
       </c>
       <c r="CD25" s="1">
         <v>17.352916</v>
       </c>
       <c r="CE25" s="1">
-        <v>1826.890000</v>
+        <v>1826.89</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1398.700000</v>
+        <v>-1398.7</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
         <v>62297.169918</v>
       </c>
@@ -6649,255 +7065,256 @@
         <v>17.304769</v>
       </c>
       <c r="C26" s="1">
-        <v>901.083000</v>
+        <v>901.08299999999997</v>
       </c>
       <c r="D26" s="1">
-        <v>-186.386000</v>
+        <v>-186.386</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>62307.076475</v>
+        <v>62307.076475000002</v>
       </c>
       <c r="G26" s="1">
-        <v>17.307521</v>
+        <v>17.307521000000001</v>
       </c>
       <c r="H26" s="1">
-        <v>915.762000</v>
+        <v>915.76199999999994</v>
       </c>
       <c r="I26" s="1">
-        <v>-158.984000</v>
+        <v>-158.98400000000001</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>62317.268765</v>
+        <v>62317.268765000001</v>
       </c>
       <c r="L26" s="1">
-        <v>17.310352</v>
+        <v>17.310352000000002</v>
       </c>
       <c r="M26" s="1">
-        <v>938.410000</v>
+        <v>938.41</v>
       </c>
       <c r="N26" s="1">
-        <v>-116.480000</v>
+        <v>-116.48</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>62327.808259</v>
+        <v>62327.808258999998</v>
       </c>
       <c r="Q26" s="1">
-        <v>17.313280</v>
+        <v>17.313279999999999</v>
       </c>
       <c r="R26" s="1">
-        <v>945.759000</v>
+        <v>945.75900000000001</v>
       </c>
       <c r="S26" s="1">
-        <v>-101.682000</v>
+        <v>-101.682</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
         <v>62337.897416</v>
       </c>
       <c r="V26" s="1">
-        <v>17.316083</v>
+        <v>17.316082999999999</v>
       </c>
       <c r="W26" s="1">
-        <v>952.997000</v>
+        <v>952.99699999999996</v>
       </c>
       <c r="X26" s="1">
-        <v>-87.713500</v>
+        <v>-87.713499999999996</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>62348.146709</v>
+        <v>62348.146709000001</v>
       </c>
       <c r="AA26" s="1">
-        <v>17.318930</v>
+        <v>17.318930000000002</v>
       </c>
       <c r="AB26" s="1">
-        <v>960.756000</v>
+        <v>960.75599999999997</v>
       </c>
       <c r="AC26" s="1">
-        <v>-76.863000</v>
+        <v>-76.863</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>62358.577576</v>
+        <v>62358.577576000003</v>
       </c>
       <c r="AF26" s="1">
-        <v>17.321827</v>
+        <v>17.321826999999999</v>
       </c>
       <c r="AG26" s="1">
-        <v>965.706000</v>
+        <v>965.70600000000002</v>
       </c>
       <c r="AH26" s="1">
-        <v>-74.789400</v>
+        <v>-74.789400000000001</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>62369.475708</v>
+        <v>62369.475707999998</v>
       </c>
       <c r="AK26" s="1">
-        <v>17.324854</v>
+        <v>17.324853999999998</v>
       </c>
       <c r="AL26" s="1">
-        <v>973.384000</v>
+        <v>973.38400000000001</v>
       </c>
       <c r="AM26" s="1">
-        <v>-79.468100</v>
+        <v>-79.468100000000007</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>62380.470490</v>
+        <v>62380.47049</v>
       </c>
       <c r="AP26" s="1">
-        <v>17.327908</v>
+        <v>17.327908000000001</v>
       </c>
       <c r="AQ26" s="1">
-        <v>981.593000</v>
+        <v>981.59299999999996</v>
       </c>
       <c r="AR26" s="1">
-        <v>-91.001400</v>
+        <v>-91.001400000000004</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>62391.577899</v>
+        <v>62391.577899000004</v>
       </c>
       <c r="AU26" s="1">
         <v>17.330994</v>
       </c>
       <c r="AV26" s="1">
-        <v>991.521000</v>
+        <v>991.52099999999996</v>
       </c>
       <c r="AW26" s="1">
-        <v>-108.670000</v>
+        <v>-108.67</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>62402.226044</v>
+        <v>62402.226044000003</v>
       </c>
       <c r="AZ26" s="1">
         <v>17.333952</v>
       </c>
       <c r="BA26" s="1">
-        <v>999.790000</v>
+        <v>999.79</v>
       </c>
       <c r="BB26" s="1">
-        <v>-124.281000</v>
+        <v>-124.28100000000001</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>62413.206974</v>
+        <v>62413.206974000001</v>
       </c>
       <c r="BE26" s="1">
-        <v>17.337002</v>
+        <v>17.337001999999998</v>
       </c>
       <c r="BF26" s="1">
-        <v>1038.620000</v>
+        <v>1038.6199999999999</v>
       </c>
       <c r="BG26" s="1">
-        <v>-196.178000</v>
+        <v>-196.178</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>62425.335652</v>
+        <v>62425.335652000002</v>
       </c>
       <c r="BJ26" s="1">
-        <v>17.340371</v>
+        <v>17.340371000000001</v>
       </c>
       <c r="BK26" s="1">
-        <v>1105.970000</v>
+        <v>1105.97</v>
       </c>
       <c r="BL26" s="1">
-        <v>-312.383000</v>
+        <v>-312.38299999999998</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>62436.146913</v>
+        <v>62436.146912999997</v>
       </c>
       <c r="BO26" s="1">
-        <v>17.343374</v>
+        <v>17.343374000000001</v>
       </c>
       <c r="BP26" s="1">
-        <v>1215.560000</v>
+        <v>1215.56</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-494.005000</v>
+        <v>-494.005</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>62446.809907</v>
+        <v>62446.809907000003</v>
       </c>
       <c r="BT26" s="1">
-        <v>17.346336</v>
+        <v>17.346336000000001</v>
       </c>
       <c r="BU26" s="1">
-        <v>1338.020000</v>
+        <v>1338.02</v>
       </c>
       <c r="BV26" s="1">
-        <v>-691.557000</v>
+        <v>-691.55700000000002</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>62457.751652</v>
+        <v>62457.751651999999</v>
       </c>
       <c r="BY26" s="1">
-        <v>17.349375</v>
+        <v>17.349374999999998</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1474.180000</v>
+        <v>1474.18</v>
       </c>
       <c r="CA26" s="1">
-        <v>-901.621000</v>
+        <v>-901.62099999999998</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>62471.054851</v>
+        <v>62471.054851000001</v>
       </c>
       <c r="CD26" s="1">
         <v>17.353071</v>
       </c>
       <c r="CE26" s="1">
-        <v>1826.760000</v>
+        <v>1826.76</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1397.740000</v>
+        <v>-1397.74</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>